--- a/data/Empire_sructure_maps.xlsx
+++ b/data/Empire_sructure_maps.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="408" windowWidth="27552" windowHeight="14088" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="408" windowWidth="27552" windowHeight="14088"/>
   </bookViews>
   <sheets>
     <sheet name="lines" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="274">
   <si>
     <t>Damascus</t>
   </si>
@@ -837,6 +837,12 @@
   </si>
   <si>
     <t>The Kurdish dynasty of the Marwānids Around 990, the Kurdish dynasty of the Marwānids made Mayyāfāriqīn its capital</t>
+  </si>
+  <si>
+    <t>line_colour</t>
+  </si>
+  <si>
+    <t>to do</t>
   </si>
 </sst>
 </file>
@@ -1194,13 +1200,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L243"/>
+  <dimension ref="A1:N243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C144" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D165" sqref="D165"/>
+      <selection pane="bottomRight" activeCell="M161" sqref="M161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1211,10 +1217,10 @@
     <col min="4" max="6" width="17.88671875" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" customWidth="1"/>
     <col min="9" max="9" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
+    <col min="14" max="14" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -1245,11 +1251,20 @@
       <c r="J1" t="s">
         <v>86</v>
       </c>
+      <c r="K1" t="s">
+        <v>272</v>
+      </c>
       <c r="L1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1276,12 +1291,12 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="str">
-        <f t="shared" ref="L2:L65" si="2">C2&amp;"-01-01"</f>
+      <c r="N2" t="str">
+        <f t="shared" ref="N2:N65" si="2">C2&amp;"-01-01"</f>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1308,12 +1323,12 @@
       <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="str">
+      <c r="N3" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1337,12 +1352,12 @@
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="L4" t="str">
+      <c r="N4" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1366,12 +1381,12 @@
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="L5" t="str">
+      <c r="N5" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1398,12 +1413,12 @@
       <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="str">
+      <c r="N6" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1427,15 +1442,15 @@
       <c r="G7">
         <v>3</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>68</v>
       </c>
-      <c r="L7" t="str">
+      <c r="N7" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1468,12 +1483,12 @@
       <c r="J8" t="s">
         <v>165</v>
       </c>
-      <c r="L8" t="str">
+      <c r="N8" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1500,12 +1515,12 @@
       <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="L9" t="str">
+      <c r="N9" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1532,12 +1547,12 @@
       <c r="I10" t="s">
         <v>36</v>
       </c>
-      <c r="L10" t="str">
+      <c r="N10" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1561,12 +1576,12 @@
       <c r="G11">
         <v>2</v>
       </c>
-      <c r="L11" t="str">
+      <c r="N11" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1590,12 +1605,12 @@
       <c r="G12">
         <v>2</v>
       </c>
-      <c r="L12" t="str">
+      <c r="N12" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1622,12 +1637,12 @@
       <c r="I13" t="s">
         <v>10</v>
       </c>
-      <c r="L13" t="str">
+      <c r="N13" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1651,12 +1666,12 @@
       <c r="G14">
         <v>5</v>
       </c>
-      <c r="L14" t="str">
+      <c r="N14" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1680,12 +1695,12 @@
       <c r="G15">
         <v>3</v>
       </c>
-      <c r="L15" t="str">
+      <c r="N15" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1712,12 +1727,12 @@
       <c r="J16" t="s">
         <v>151</v>
       </c>
-      <c r="L16" t="str">
+      <c r="N16" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1744,12 +1759,12 @@
       <c r="I17" t="s">
         <v>199</v>
       </c>
-      <c r="L17" t="str">
+      <c r="N17" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1776,12 +1791,12 @@
       <c r="J18" t="s">
         <v>150</v>
       </c>
-      <c r="L18" t="str">
+      <c r="N18" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1811,12 +1826,12 @@
       <c r="J19" t="s">
         <v>169</v>
       </c>
-      <c r="L19" t="str">
+      <c r="N19" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1840,12 +1855,12 @@
       <c r="G20">
         <v>2</v>
       </c>
-      <c r="L20" t="str">
+      <c r="N20" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1869,12 +1884,12 @@
       <c r="G21">
         <v>2</v>
       </c>
-      <c r="L21" t="str">
+      <c r="N21" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1898,12 +1913,12 @@
       <c r="G22">
         <v>2</v>
       </c>
-      <c r="L22" t="str">
+      <c r="N22" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1927,12 +1942,12 @@
       <c r="G23">
         <v>2</v>
       </c>
-      <c r="L23" t="str">
+      <c r="N23" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1959,12 +1974,12 @@
       <c r="I24" t="s">
         <v>15</v>
       </c>
-      <c r="L24" t="str">
+      <c r="N24" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1991,12 +2006,12 @@
       <c r="I25" t="s">
         <v>204</v>
       </c>
-      <c r="L25" t="str">
+      <c r="N25" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2023,12 +2038,12 @@
       <c r="I26" t="s">
         <v>209</v>
       </c>
-      <c r="L26" t="str">
+      <c r="N26" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>148</v>
       </c>
@@ -2055,12 +2070,12 @@
       <c r="I27" t="s">
         <v>205</v>
       </c>
-      <c r="L27" t="str">
+      <c r="N27" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2087,12 +2102,12 @@
       <c r="I28" t="s">
         <v>168</v>
       </c>
-      <c r="L28" t="str">
+      <c r="N28" t="str">
         <f t="shared" si="2"/>
         <v>661-01-01</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2119,12 +2134,12 @@
       <c r="I29" t="s">
         <v>35</v>
       </c>
-      <c r="L29" t="str">
+      <c r="N29" t="str">
         <f t="shared" si="2"/>
         <v>665-01-01</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2148,12 +2163,12 @@
       <c r="G30">
         <v>4</v>
       </c>
-      <c r="L30" t="str">
+      <c r="N30" t="str">
         <f t="shared" si="2"/>
         <v>670-01-01</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2180,12 +2195,12 @@
       <c r="I31" t="s">
         <v>35</v>
       </c>
-      <c r="L31" t="str">
+      <c r="N31" t="str">
         <f t="shared" si="2"/>
         <v>670-01-01</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2212,12 +2227,12 @@
       <c r="I32" t="s">
         <v>25</v>
       </c>
-      <c r="L32" t="str">
+      <c r="N32" t="str">
         <f t="shared" si="2"/>
         <v>684-01-01</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2244,12 +2259,12 @@
       <c r="I33" t="s">
         <v>199</v>
       </c>
-      <c r="L33" t="str">
+      <c r="N33" t="str">
         <f t="shared" si="2"/>
         <v>684-01-01</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -2276,12 +2291,12 @@
       <c r="I34" t="s">
         <v>10</v>
       </c>
-      <c r="L34" t="str">
+      <c r="N34" t="str">
         <f t="shared" si="2"/>
         <v>684-01-01</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -2308,12 +2323,12 @@
       <c r="I35" t="s">
         <v>10</v>
       </c>
-      <c r="L35" t="str">
+      <c r="N35" t="str">
         <f t="shared" si="2"/>
         <v>684-01-01</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -2337,12 +2352,12 @@
       <c r="G36">
         <v>2</v>
       </c>
-      <c r="L36" t="str">
+      <c r="N36" t="str">
         <f t="shared" si="2"/>
         <v>684-01-01</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -2366,12 +2381,12 @@
       <c r="G37">
         <v>2</v>
       </c>
-      <c r="L37" t="str">
+      <c r="N37" t="str">
         <f t="shared" si="2"/>
         <v>684-01-01</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -2395,12 +2410,12 @@
       <c r="G38">
         <v>2</v>
       </c>
-      <c r="L38" t="str">
+      <c r="N38" t="str">
         <f t="shared" si="2"/>
         <v>684-01-01</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -2424,12 +2439,12 @@
       <c r="G39">
         <v>2</v>
       </c>
-      <c r="L39" t="str">
+      <c r="N39" t="str">
         <f t="shared" si="2"/>
         <v>684-01-01</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -2453,12 +2468,12 @@
       <c r="G40">
         <v>2</v>
       </c>
-      <c r="L40" t="str">
+      <c r="N40" t="str">
         <f t="shared" si="2"/>
         <v>684-01-01</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -2485,12 +2500,12 @@
       <c r="I41" t="s">
         <v>209</v>
       </c>
-      <c r="L41" t="str">
+      <c r="N41" t="str">
         <f t="shared" si="2"/>
         <v>685-01-01</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -2517,12 +2532,12 @@
       <c r="I42" t="s">
         <v>209</v>
       </c>
-      <c r="L42" t="str">
+      <c r="N42" t="str">
         <f t="shared" si="2"/>
         <v>686-01-01</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -2549,12 +2564,12 @@
       <c r="I43" t="s">
         <v>211</v>
       </c>
-      <c r="L43" t="str">
+      <c r="N43" t="str">
         <f t="shared" si="2"/>
         <v>687-01-01</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -2581,12 +2596,12 @@
       <c r="I44" t="s">
         <v>10</v>
       </c>
-      <c r="L44" t="str">
+      <c r="N44" t="str">
         <f t="shared" si="2"/>
         <v>691-01-01</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2613,12 +2628,12 @@
       <c r="I45" t="s">
         <v>212</v>
       </c>
-      <c r="L45" t="str">
+      <c r="N45" t="str">
         <f t="shared" si="2"/>
         <v>691-01-01</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2645,12 +2660,12 @@
       <c r="I46" t="s">
         <v>11</v>
       </c>
-      <c r="L46" t="str">
+      <c r="N46" t="str">
         <f t="shared" si="2"/>
         <v>692-01-01</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -2677,12 +2692,12 @@
       <c r="I47" t="s">
         <v>199</v>
       </c>
-      <c r="L47" t="str">
+      <c r="N47" t="str">
         <f t="shared" si="2"/>
         <v>692-01-01</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2706,12 +2721,12 @@
       <c r="G48">
         <v>5</v>
       </c>
-      <c r="L48" t="str">
+      <c r="N48" t="str">
         <f t="shared" si="2"/>
         <v>693-01-01</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>210</v>
       </c>
@@ -2738,12 +2753,12 @@
       <c r="I49" t="s">
         <v>206</v>
       </c>
-      <c r="L49" t="str">
+      <c r="N49" t="str">
         <f t="shared" si="2"/>
         <v>693-01-01</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>210</v>
       </c>
@@ -2773,12 +2788,12 @@
       <c r="J50" t="s">
         <v>161</v>
       </c>
-      <c r="L50" t="str">
+      <c r="N50" t="str">
         <f t="shared" si="2"/>
         <v>693-01-01</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>210</v>
       </c>
@@ -2805,12 +2820,12 @@
       <c r="I51" t="s">
         <v>206</v>
       </c>
-      <c r="L51" t="str">
+      <c r="N51" t="str">
         <f t="shared" si="2"/>
         <v>693-01-01</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>210</v>
       </c>
@@ -2834,12 +2849,12 @@
       <c r="G52">
         <v>3</v>
       </c>
-      <c r="L52" t="str">
+      <c r="N52" t="str">
         <f t="shared" si="2"/>
         <v>693-01-01</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>210</v>
       </c>
@@ -2866,12 +2881,12 @@
       <c r="I53" t="s">
         <v>206</v>
       </c>
-      <c r="L53" t="str">
+      <c r="N53" t="str">
         <f t="shared" si="2"/>
         <v>693-01-01</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>210</v>
       </c>
@@ -2898,12 +2913,12 @@
       <c r="I54" t="s">
         <v>206</v>
       </c>
-      <c r="L54" t="str">
+      <c r="N54" t="str">
         <f t="shared" si="2"/>
         <v>693-01-01</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -2930,12 +2945,12 @@
       <c r="I55" t="s">
         <v>9</v>
       </c>
-      <c r="L55" t="str">
+      <c r="N55" t="str">
         <f t="shared" si="2"/>
         <v>694-01-01</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2962,12 +2977,12 @@
       <c r="I56" t="s">
         <v>9</v>
       </c>
-      <c r="L56" t="str">
+      <c r="N56" t="str">
         <f t="shared" si="2"/>
         <v>694-01-01</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2991,12 +3006,12 @@
       <c r="G57">
         <v>3</v>
       </c>
-      <c r="L57" t="str">
+      <c r="N57" t="str">
         <f t="shared" si="2"/>
         <v>694-01-01</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -3023,12 +3038,12 @@
       <c r="I58" t="s">
         <v>9</v>
       </c>
-      <c r="L58" t="str">
+      <c r="N58" t="str">
         <f t="shared" si="2"/>
         <v>694-01-01</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -3055,12 +3070,12 @@
       <c r="I59" t="s">
         <v>9</v>
       </c>
-      <c r="L59" t="str">
+      <c r="N59" t="str">
         <f t="shared" si="2"/>
         <v>694-01-01</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -3087,12 +3102,12 @@
       <c r="I60" t="s">
         <v>9</v>
       </c>
-      <c r="L60" t="str">
+      <c r="N60" t="str">
         <f t="shared" si="2"/>
         <v>694-01-01</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -3119,12 +3134,12 @@
       <c r="I61" t="s">
         <v>9</v>
       </c>
-      <c r="L61" t="str">
+      <c r="N61" t="str">
         <f t="shared" si="2"/>
         <v>694-01-01</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -3151,12 +3166,12 @@
       <c r="I62" t="s">
         <v>9</v>
       </c>
-      <c r="L62" t="str">
+      <c r="N62" t="str">
         <f t="shared" si="2"/>
         <v>694-01-01</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -3180,12 +3195,12 @@
       <c r="G63">
         <v>3</v>
       </c>
-      <c r="L63" t="str">
+      <c r="N63" t="str">
         <f t="shared" si="2"/>
         <v>702-01-01</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -3209,12 +3224,12 @@
       <c r="G64">
         <v>2</v>
       </c>
-      <c r="L64" t="str">
+      <c r="N64" t="str">
         <f t="shared" si="2"/>
         <v>710-01-01</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>172</v>
       </c>
@@ -3247,12 +3262,12 @@
       <c r="J65" t="s">
         <v>189</v>
       </c>
-      <c r="L65" t="str">
+      <c r="N65" t="str">
         <f t="shared" si="2"/>
         <v>710-01-01</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -3279,12 +3294,12 @@
       <c r="I66" t="s">
         <v>37</v>
       </c>
-      <c r="L66" t="str">
-        <f t="shared" ref="L66:L129" si="5">C66&amp;"-01-01"</f>
+      <c r="N66" t="str">
+        <f t="shared" ref="N66:N129" si="5">C66&amp;"-01-01"</f>
         <v>716-01-01</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -3308,12 +3323,12 @@
       <c r="G67">
         <v>3</v>
       </c>
-      <c r="L67" t="str">
+      <c r="N67" t="str">
         <f t="shared" si="5"/>
         <v>717-01-01</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -3340,15 +3355,15 @@
       <c r="I68" t="s">
         <v>9</v>
       </c>
-      <c r="J68" t="s">
+      <c r="M68" t="s">
         <v>68</v>
       </c>
-      <c r="L68" t="str">
+      <c r="N68" t="str">
         <f t="shared" si="5"/>
         <v>717-01-01</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -3375,12 +3390,12 @@
       <c r="I69" t="s">
         <v>9</v>
       </c>
-      <c r="L69" t="str">
+      <c r="N69" t="str">
         <f t="shared" si="5"/>
         <v>717-01-01</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -3407,12 +3422,12 @@
       <c r="I70" t="s">
         <v>9</v>
       </c>
-      <c r="L70" t="str">
+      <c r="N70" t="str">
         <f t="shared" si="5"/>
         <v>717-01-01</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -3439,12 +3454,12 @@
       <c r="I71" t="s">
         <v>9</v>
       </c>
-      <c r="L71" t="str">
+      <c r="N71" t="str">
         <f t="shared" si="5"/>
         <v>717-01-01</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -3471,12 +3486,12 @@
       <c r="I72" t="s">
         <v>9</v>
       </c>
-      <c r="L72" t="str">
+      <c r="N72" t="str">
         <f t="shared" si="5"/>
         <v>717-01-01</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -3503,12 +3518,12 @@
       <c r="I73" t="s">
         <v>9</v>
       </c>
-      <c r="L73" t="str">
+      <c r="N73" t="str">
         <f t="shared" si="5"/>
         <v>717-01-01</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -3535,15 +3550,15 @@
       <c r="I74" t="s">
         <v>9</v>
       </c>
-      <c r="J74" t="s">
+      <c r="M74" t="s">
         <v>68</v>
       </c>
-      <c r="L74" t="str">
+      <c r="N74" t="str">
         <f t="shared" si="5"/>
         <v>717-01-01</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -3570,12 +3585,12 @@
       <c r="I75" t="s">
         <v>9</v>
       </c>
-      <c r="L75" t="str">
+      <c r="N75" t="str">
         <f t="shared" si="5"/>
         <v>720-01-01</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -3602,12 +3617,12 @@
       <c r="I76" t="s">
         <v>9</v>
       </c>
-      <c r="L76" t="str">
+      <c r="N76" t="str">
         <f t="shared" si="5"/>
         <v>720-01-01</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -3631,12 +3646,12 @@
       <c r="G77">
         <v>3</v>
       </c>
-      <c r="L77" t="str">
+      <c r="N77" t="str">
         <f t="shared" si="5"/>
         <v>720-01-01</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -3660,12 +3675,12 @@
       <c r="G78">
         <v>3</v>
       </c>
-      <c r="L78" t="str">
+      <c r="N78" t="str">
         <f t="shared" si="5"/>
         <v>720-01-01</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3692,12 +3707,12 @@
       <c r="I79" t="s">
         <v>9</v>
       </c>
-      <c r="L79" t="str">
+      <c r="N79" t="str">
         <f t="shared" si="5"/>
         <v>720-01-01</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -3724,12 +3739,12 @@
       <c r="I80" t="s">
         <v>9</v>
       </c>
-      <c r="L80" t="str">
+      <c r="N80" t="str">
         <f t="shared" si="5"/>
         <v>720-01-01</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -3756,12 +3771,12 @@
       <c r="I81" t="s">
         <v>9</v>
       </c>
-      <c r="L81" t="str">
+      <c r="N81" t="str">
         <f t="shared" si="5"/>
         <v>720-01-01</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -3788,12 +3803,12 @@
       <c r="I82" t="s">
         <v>206</v>
       </c>
-      <c r="L82" t="str">
+      <c r="N82" t="str">
         <f t="shared" si="5"/>
         <v>732-01-01</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -3820,12 +3835,12 @@
       <c r="I83" t="s">
         <v>206</v>
       </c>
-      <c r="L83" t="str">
+      <c r="N83" t="str">
         <f t="shared" si="5"/>
         <v>732-01-01</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>172</v>
       </c>
@@ -3852,12 +3867,12 @@
       <c r="I84" t="s">
         <v>183</v>
       </c>
-      <c r="L84" t="str">
+      <c r="N84" t="str">
         <f t="shared" si="5"/>
         <v>739-01-01</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>172</v>
       </c>
@@ -3887,12 +3902,12 @@
       <c r="J85" t="s">
         <v>190</v>
       </c>
-      <c r="L85" t="str">
+      <c r="N85" t="str">
         <f t="shared" si="5"/>
         <v>740-01-01</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>96</v>
       </c>
@@ -3919,12 +3934,12 @@
       <c r="I86" t="s">
         <v>97</v>
       </c>
-      <c r="L86" t="str">
+      <c r="N86" t="str">
         <f t="shared" si="5"/>
         <v>745-01-01</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -3951,12 +3966,12 @@
       <c r="I87" t="s">
         <v>97</v>
       </c>
-      <c r="L87" t="str">
+      <c r="N87" t="str">
         <f t="shared" si="5"/>
         <v>745-01-01</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -3983,12 +3998,12 @@
       <c r="I88" t="s">
         <v>9</v>
       </c>
-      <c r="L88" t="str">
+      <c r="N88" t="str">
         <f t="shared" si="5"/>
         <v>745-01-01</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>96</v>
       </c>
@@ -4015,12 +4030,12 @@
       <c r="I89" t="s">
         <v>192</v>
       </c>
-      <c r="L89" t="str">
+      <c r="N89" t="str">
         <f t="shared" si="5"/>
         <v>745-01-01</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -4047,12 +4062,12 @@
       <c r="I90" t="s">
         <v>97</v>
       </c>
-      <c r="L90" t="str">
+      <c r="N90" t="str">
         <f t="shared" si="5"/>
         <v>745-01-01</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -4079,12 +4094,12 @@
       <c r="I91" t="s">
         <v>200</v>
       </c>
-      <c r="L91" t="str">
+      <c r="N91" t="str">
         <f t="shared" si="5"/>
         <v>745-01-01</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -4108,12 +4123,12 @@
       <c r="G92">
         <v>5</v>
       </c>
-      <c r="L92" t="str">
+      <c r="N92" t="str">
         <f t="shared" si="5"/>
         <v>745-01-01</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -4140,12 +4155,12 @@
       <c r="I93" t="s">
         <v>9</v>
       </c>
-      <c r="L93" t="str">
+      <c r="N93" t="str">
         <f t="shared" si="5"/>
         <v>745-01-01</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -4169,12 +4184,12 @@
       <c r="G94">
         <v>3</v>
       </c>
-      <c r="L94" t="str">
+      <c r="N94" t="str">
         <f t="shared" si="5"/>
         <v>745-01-01</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -4207,12 +4222,12 @@
       <c r="J95" t="s">
         <v>165</v>
       </c>
-      <c r="L95" t="str">
+      <c r="N95" t="str">
         <f t="shared" si="5"/>
         <v>750-01-01</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -4239,12 +4254,12 @@
       <c r="I96" t="s">
         <v>22</v>
       </c>
-      <c r="L96" t="str">
+      <c r="N96" t="str">
         <f t="shared" si="5"/>
         <v>750-01-01</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -4271,12 +4286,12 @@
       <c r="I97" t="s">
         <v>22</v>
       </c>
-      <c r="L97" t="str">
+      <c r="N97" t="str">
         <f t="shared" si="5"/>
         <v>750-01-01</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -4303,12 +4318,12 @@
       <c r="I98" t="s">
         <v>22</v>
       </c>
-      <c r="L98" t="str">
+      <c r="N98" t="str">
         <f t="shared" si="5"/>
         <v>750-01-01</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -4332,12 +4347,12 @@
       <c r="G99">
         <v>3</v>
       </c>
-      <c r="L99" t="str">
+      <c r="N99" t="str">
         <f t="shared" si="5"/>
         <v>750-01-01</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -4361,12 +4376,12 @@
       <c r="G100">
         <v>3</v>
       </c>
-      <c r="L100" t="str">
+      <c r="N100" t="str">
         <f t="shared" si="5"/>
         <v>750-01-01</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -4390,12 +4405,12 @@
       <c r="G101">
         <v>4</v>
       </c>
-      <c r="L101" t="str">
+      <c r="N101" t="str">
         <f t="shared" si="5"/>
         <v>750-01-01</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -4422,12 +4437,12 @@
       <c r="I102" t="s">
         <v>192</v>
       </c>
-      <c r="L102" t="str">
+      <c r="N102" t="str">
         <f t="shared" si="5"/>
         <v>750-01-01</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -4454,12 +4469,12 @@
       <c r="I103" t="s">
         <v>22</v>
       </c>
-      <c r="L103" t="str">
+      <c r="N103" t="str">
         <f t="shared" si="5"/>
         <v>750-01-01</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -4486,12 +4501,12 @@
       <c r="I104" t="s">
         <v>200</v>
       </c>
-      <c r="L104" t="str">
+      <c r="N104" t="str">
         <f t="shared" si="5"/>
         <v>750-01-01</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -4515,12 +4530,12 @@
       <c r="G105">
         <v>3</v>
       </c>
-      <c r="L105" t="str">
+      <c r="N105" t="str">
         <f t="shared" si="5"/>
         <v>750-01-01</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -4553,12 +4568,12 @@
       <c r="J106" t="s">
         <v>165</v>
       </c>
-      <c r="L106" t="str">
+      <c r="N106" t="str">
         <f t="shared" si="5"/>
         <v>752-01-01</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -4585,12 +4600,12 @@
       <c r="I107" t="s">
         <v>17</v>
       </c>
-      <c r="L107" t="str">
+      <c r="N107" t="str">
         <f t="shared" si="5"/>
         <v>752-01-01</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>16</v>
       </c>
@@ -4617,12 +4632,12 @@
       <c r="I108" t="s">
         <v>17</v>
       </c>
-      <c r="L108" t="str">
+      <c r="N108" t="str">
         <f t="shared" si="5"/>
         <v>752-01-01</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>16</v>
       </c>
@@ -4649,12 +4664,12 @@
       <c r="I109" t="s">
         <v>17</v>
       </c>
-      <c r="L109" t="str">
+      <c r="N109" t="str">
         <f t="shared" si="5"/>
         <v>752-01-01</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -4678,12 +4693,12 @@
       <c r="G110">
         <v>3</v>
       </c>
-      <c r="L110" t="str">
+      <c r="N110" t="str">
         <f t="shared" si="5"/>
         <v>752-01-01</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>16</v>
       </c>
@@ -4707,12 +4722,12 @@
       <c r="G111">
         <v>3</v>
       </c>
-      <c r="L111" t="str">
+      <c r="N111" t="str">
         <f t="shared" si="5"/>
         <v>752-01-01</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>16</v>
       </c>
@@ -4739,12 +4754,12 @@
       <c r="I112" t="s">
         <v>17</v>
       </c>
-      <c r="L112" t="str">
+      <c r="N112" t="str">
         <f t="shared" si="5"/>
         <v>752-01-01</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>16</v>
       </c>
@@ -4768,12 +4783,12 @@
       <c r="G113">
         <v>4</v>
       </c>
-      <c r="L113" t="str">
+      <c r="N113" t="str">
         <f t="shared" si="5"/>
         <v>752-01-01</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -4800,12 +4815,12 @@
       <c r="I114" t="s">
         <v>192</v>
       </c>
-      <c r="L114" t="str">
+      <c r="N114" t="str">
         <f t="shared" si="5"/>
         <v>752-01-01</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -4832,12 +4847,12 @@
       <c r="I115" t="s">
         <v>17</v>
       </c>
-      <c r="L115" t="str">
+      <c r="N115" t="str">
         <f t="shared" si="5"/>
         <v>752-01-01</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -4861,12 +4876,12 @@
       <c r="G116">
         <v>3</v>
       </c>
-      <c r="L116" t="str">
+      <c r="N116" t="str">
         <f t="shared" si="5"/>
         <v>752-01-01</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -4893,12 +4908,12 @@
       <c r="I117" t="s">
         <v>200</v>
       </c>
-      <c r="L117" t="str">
+      <c r="N117" t="str">
         <f t="shared" si="5"/>
         <v>752-01-01</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>16</v>
       </c>
@@ -4922,12 +4937,12 @@
       <c r="G118">
         <v>3</v>
       </c>
-      <c r="L118" t="str">
+      <c r="N118" t="str">
         <f t="shared" si="5"/>
         <v>752-01-01</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -4960,12 +4975,12 @@
       <c r="J119" t="s">
         <v>165</v>
       </c>
-      <c r="L119" t="str">
+      <c r="N119" t="str">
         <f t="shared" si="5"/>
         <v>762-01-01</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -4992,12 +5007,12 @@
       <c r="I120" t="s">
         <v>19</v>
       </c>
-      <c r="L120" t="str">
+      <c r="N120" t="str">
         <f t="shared" si="5"/>
         <v>762-01-01</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -5024,12 +5039,12 @@
       <c r="I121" t="s">
         <v>19</v>
       </c>
-      <c r="L121" t="str">
+      <c r="N121" t="str">
         <f t="shared" si="5"/>
         <v>762-01-01</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -5056,12 +5071,12 @@
       <c r="I122" t="s">
         <v>33</v>
       </c>
-      <c r="L122" t="str">
+      <c r="N122" t="str">
         <f t="shared" si="5"/>
         <v>762-01-01</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -5085,12 +5100,12 @@
       <c r="G123">
         <v>3</v>
       </c>
-      <c r="L123" t="str">
+      <c r="N123" t="str">
         <f t="shared" si="5"/>
         <v>762-01-01</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -5114,12 +5129,12 @@
       <c r="G124">
         <v>3</v>
       </c>
-      <c r="L124" t="str">
+      <c r="N124" t="str">
         <f t="shared" si="5"/>
         <v>762-01-01</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -5146,12 +5161,12 @@
       <c r="I125" t="s">
         <v>19</v>
       </c>
-      <c r="L125" t="str">
+      <c r="N125" t="str">
         <f t="shared" si="5"/>
         <v>762-01-01</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -5175,12 +5190,12 @@
       <c r="G126">
         <v>4</v>
       </c>
-      <c r="L126" t="str">
+      <c r="N126" t="str">
         <f t="shared" si="5"/>
         <v>762-01-01</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -5207,12 +5222,12 @@
       <c r="I127" t="s">
         <v>192</v>
       </c>
-      <c r="L127" t="str">
+      <c r="N127" t="str">
         <f t="shared" si="5"/>
         <v>762-01-01</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>20</v>
       </c>
@@ -5239,12 +5254,12 @@
       <c r="I128" t="s">
         <v>19</v>
       </c>
-      <c r="L128" t="str">
+      <c r="N128" t="str">
         <f t="shared" si="5"/>
         <v>762-01-01</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>20</v>
       </c>
@@ -5268,12 +5283,12 @@
       <c r="G129">
         <v>3</v>
       </c>
-      <c r="L129" t="str">
+      <c r="N129" t="str">
         <f t="shared" si="5"/>
         <v>762-01-01</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -5300,12 +5315,12 @@
       <c r="I130" t="s">
         <v>199</v>
       </c>
-      <c r="L130" t="str">
-        <f t="shared" ref="L130:L193" si="8">C130&amp;"-01-01"</f>
+      <c r="N130" t="str">
+        <f t="shared" ref="N130:N193" si="8">C130&amp;"-01-01"</f>
         <v>762-01-01</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>20</v>
       </c>
@@ -5329,12 +5344,12 @@
       <c r="G131">
         <v>3</v>
       </c>
-      <c r="L131" t="str">
+      <c r="N131" t="str">
         <f t="shared" si="8"/>
         <v>762-01-01</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>20</v>
       </c>
@@ -5361,12 +5376,12 @@
       <c r="I132" t="s">
         <v>54</v>
       </c>
-      <c r="L132" t="str">
+      <c r="N132" t="str">
         <f t="shared" si="8"/>
         <v>762-01-01</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -5390,12 +5405,12 @@
       <c r="G133">
         <v>3</v>
       </c>
-      <c r="L133" t="str">
+      <c r="N133" t="str">
         <f t="shared" si="8"/>
         <v>777-01-01</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -5419,12 +5434,12 @@
       <c r="G134">
         <v>3</v>
       </c>
-      <c r="L134" t="str">
+      <c r="N134" t="str">
         <f t="shared" si="8"/>
         <v>785-01-01</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>20</v>
       </c>
@@ -5448,12 +5463,12 @@
       <c r="G135">
         <v>3</v>
       </c>
-      <c r="L135" t="str">
+      <c r="N135" t="str">
         <f t="shared" si="8"/>
         <v>789-01-01</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>18</v>
       </c>
@@ -5486,12 +5501,12 @@
       <c r="J136" t="s">
         <v>165</v>
       </c>
-      <c r="L136" t="str">
+      <c r="N136" t="str">
         <f t="shared" si="8"/>
         <v>796-01-01</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>18</v>
       </c>
@@ -5518,12 +5533,12 @@
       <c r="I137" t="s">
         <v>19</v>
       </c>
-      <c r="L137" t="str">
+      <c r="N137" t="str">
         <f t="shared" si="8"/>
         <v>796-01-01</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>18</v>
       </c>
@@ -5550,12 +5565,12 @@
       <c r="I138" t="s">
         <v>19</v>
       </c>
-      <c r="L138" t="str">
+      <c r="N138" t="str">
         <f t="shared" si="8"/>
         <v>796-01-01</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>18</v>
       </c>
@@ -5582,12 +5597,12 @@
       <c r="I139" t="s">
         <v>19</v>
       </c>
-      <c r="L139" t="str">
+      <c r="N139" t="str">
         <f t="shared" si="8"/>
         <v>796-01-01</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>18</v>
       </c>
@@ -5611,12 +5626,12 @@
       <c r="G140">
         <v>3</v>
       </c>
-      <c r="L140" t="str">
+      <c r="N140" t="str">
         <f t="shared" si="8"/>
         <v>796-01-01</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>18</v>
       </c>
@@ -5640,12 +5655,12 @@
       <c r="G141">
         <v>3</v>
       </c>
-      <c r="L141" t="str">
+      <c r="N141" t="str">
         <f t="shared" si="8"/>
         <v>796-01-01</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>18</v>
       </c>
@@ -5672,12 +5687,12 @@
       <c r="I142" t="s">
         <v>19</v>
       </c>
-      <c r="L142" t="str">
+      <c r="N142" t="str">
         <f t="shared" si="8"/>
         <v>796-01-01</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>18</v>
       </c>
@@ -5701,12 +5716,12 @@
       <c r="G143">
         <v>4</v>
       </c>
-      <c r="L143" t="str">
+      <c r="N143" t="str">
         <f t="shared" si="8"/>
         <v>796-01-01</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -5733,12 +5748,12 @@
       <c r="I144" t="s">
         <v>192</v>
       </c>
-      <c r="L144" t="str">
+      <c r="N144" t="str">
         <f t="shared" si="8"/>
         <v>796-01-01</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>18</v>
       </c>
@@ -5765,12 +5780,12 @@
       <c r="I145" t="s">
         <v>19</v>
       </c>
-      <c r="L145" t="str">
+      <c r="N145" t="str">
         <f t="shared" si="8"/>
         <v>796-01-01</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>18</v>
       </c>
@@ -5794,12 +5809,12 @@
       <c r="G146">
         <v>3</v>
       </c>
-      <c r="L146" t="str">
+      <c r="N146" t="str">
         <f t="shared" si="8"/>
         <v>796-01-01</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>18</v>
       </c>
@@ -5826,12 +5841,12 @@
       <c r="I147" t="s">
         <v>199</v>
       </c>
-      <c r="L147" t="str">
+      <c r="N147" t="str">
         <f t="shared" si="8"/>
         <v>796-01-01</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -5855,12 +5870,12 @@
       <c r="G148">
         <v>3</v>
       </c>
-      <c r="L148" t="str">
+      <c r="N148" t="str">
         <f t="shared" si="8"/>
         <v>796-01-01</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>18</v>
       </c>
@@ -5887,12 +5902,12 @@
       <c r="I149" t="s">
         <v>54</v>
       </c>
-      <c r="L149" t="str">
+      <c r="N149" t="str">
         <f t="shared" si="8"/>
         <v>796-01-01</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>18</v>
       </c>
@@ -5916,15 +5931,15 @@
       <c r="G150">
         <v>3</v>
       </c>
-      <c r="J150" t="s">
+      <c r="M150" t="s">
         <v>88</v>
       </c>
-      <c r="L150" t="str">
+      <c r="N150" t="str">
         <f t="shared" si="8"/>
         <v>804-01-01</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>20</v>
       </c>
@@ -5957,12 +5972,12 @@
       <c r="J151" t="s">
         <v>165</v>
       </c>
-      <c r="L151" t="str">
+      <c r="N151" t="str">
         <f t="shared" si="8"/>
         <v>809-01-01</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -5989,12 +6004,12 @@
       <c r="I152" t="s">
         <v>21</v>
       </c>
-      <c r="L152" t="str">
+      <c r="N152" t="str">
         <f t="shared" si="8"/>
         <v>809-01-01</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>20</v>
       </c>
@@ -6021,12 +6036,12 @@
       <c r="I153" t="s">
         <v>21</v>
       </c>
-      <c r="L153" t="str">
+      <c r="N153" t="str">
         <f t="shared" si="8"/>
         <v>809-01-01</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>20</v>
       </c>
@@ -6053,12 +6068,12 @@
       <c r="I154" t="s">
         <v>21</v>
       </c>
-      <c r="L154" t="str">
+      <c r="N154" t="str">
         <f t="shared" si="8"/>
         <v>809-01-01</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>20</v>
       </c>
@@ -6082,12 +6097,12 @@
       <c r="G155">
         <v>3</v>
       </c>
-      <c r="L155" t="str">
+      <c r="N155" t="str">
         <f t="shared" si="8"/>
         <v>809-01-01</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>20</v>
       </c>
@@ -6111,12 +6126,12 @@
       <c r="G156">
         <v>3</v>
       </c>
-      <c r="L156" t="str">
+      <c r="N156" t="str">
         <f t="shared" si="8"/>
         <v>809-01-01</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>20</v>
       </c>
@@ -6143,12 +6158,12 @@
       <c r="I157" t="s">
         <v>21</v>
       </c>
-      <c r="L157" t="str">
+      <c r="N157" t="str">
         <f t="shared" si="8"/>
         <v>809-01-01</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>20</v>
       </c>
@@ -6172,12 +6187,12 @@
       <c r="G158">
         <v>4</v>
       </c>
-      <c r="L158" t="str">
+      <c r="N158" t="str">
         <f t="shared" si="8"/>
         <v>809-01-01</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>20</v>
       </c>
@@ -6204,12 +6219,12 @@
       <c r="I159" t="s">
         <v>192</v>
       </c>
-      <c r="L159" t="str">
+      <c r="N159" t="str">
         <f t="shared" si="8"/>
         <v>809-01-01</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>20</v>
       </c>
@@ -6236,12 +6251,12 @@
       <c r="I160" t="s">
         <v>21</v>
       </c>
-      <c r="L160" t="str">
+      <c r="N160" t="str">
         <f t="shared" si="8"/>
         <v>809-01-01</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>20</v>
       </c>
@@ -6265,15 +6280,15 @@
       <c r="G161">
         <v>3</v>
       </c>
-      <c r="J161" t="s">
+      <c r="M161" t="s">
         <v>88</v>
       </c>
-      <c r="L161" t="str">
+      <c r="N161" t="str">
         <f t="shared" si="8"/>
         <v>809-01-01</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>20</v>
       </c>
@@ -6297,12 +6312,12 @@
       <c r="G162">
         <v>3</v>
       </c>
-      <c r="L162" t="str">
+      <c r="N162" t="str">
         <f t="shared" si="8"/>
         <v>809-01-01</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -6329,12 +6344,12 @@
       <c r="I163" t="s">
         <v>199</v>
       </c>
-      <c r="L163" t="str">
+      <c r="N163" t="str">
         <f t="shared" si="8"/>
         <v>809-01-01</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>20</v>
       </c>
@@ -6358,12 +6373,12 @@
       <c r="G164">
         <v>3</v>
       </c>
-      <c r="L164" t="str">
+      <c r="N164" t="str">
         <f t="shared" si="8"/>
         <v>809-01-01</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>20</v>
       </c>
@@ -6390,12 +6405,12 @@
       <c r="I165" t="s">
         <v>54</v>
       </c>
-      <c r="L165" t="str">
+      <c r="N165" t="str">
         <f t="shared" si="8"/>
         <v>809-01-01</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>172</v>
       </c>
@@ -6419,12 +6434,12 @@
       <c r="G166">
         <v>3</v>
       </c>
-      <c r="L166" t="str">
+      <c r="N166" t="str">
         <f t="shared" si="8"/>
         <v>809-01-01</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -6451,12 +6466,12 @@
       <c r="I167" t="s">
         <v>183</v>
       </c>
-      <c r="L167" t="str">
+      <c r="N167" t="str">
         <f t="shared" si="8"/>
         <v>822-01-01</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>173</v>
       </c>
@@ -6480,12 +6495,12 @@
       <c r="G168">
         <v>3</v>
       </c>
-      <c r="L168" t="str">
+      <c r="N168" t="str">
         <f t="shared" si="8"/>
         <v>822-01-01</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>173</v>
       </c>
@@ -6512,12 +6527,12 @@
       <c r="I169" t="s">
         <v>54</v>
       </c>
-      <c r="L169" t="str">
+      <c r="N169" t="str">
         <f t="shared" si="8"/>
         <v>822-01-01</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>20</v>
       </c>
@@ -6541,12 +6556,12 @@
       <c r="G170">
         <v>4</v>
       </c>
-      <c r="L170" t="str">
+      <c r="N170" t="str">
         <f t="shared" si="8"/>
         <v>830-01-01</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>30</v>
       </c>
@@ -6570,12 +6585,12 @@
       <c r="G171">
         <v>4</v>
       </c>
-      <c r="L171" t="str">
+      <c r="N171" t="str">
         <f t="shared" si="8"/>
         <v>830-01-01</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>30</v>
       </c>
@@ -6599,12 +6614,12 @@
       <c r="G172">
         <v>3</v>
       </c>
-      <c r="L172" t="str">
+      <c r="N172" t="str">
         <f t="shared" si="8"/>
         <v>836-01-01</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>30</v>
       </c>
@@ -6631,12 +6646,12 @@
       <c r="I173" t="s">
         <v>21</v>
       </c>
-      <c r="L173" t="str">
+      <c r="N173" t="str">
         <f t="shared" si="8"/>
         <v>836-01-01</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>30</v>
       </c>
@@ -6663,12 +6678,12 @@
       <c r="I174" t="s">
         <v>21</v>
       </c>
-      <c r="L174" t="str">
+      <c r="N174" t="str">
         <f t="shared" si="8"/>
         <v>836-01-01</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>30</v>
       </c>
@@ -6695,12 +6710,12 @@
       <c r="I175" t="s">
         <v>21</v>
       </c>
-      <c r="L175" t="str">
+      <c r="N175" t="str">
         <f t="shared" si="8"/>
         <v>836-01-01</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>30</v>
       </c>
@@ -6727,12 +6742,12 @@
       <c r="I176" t="s">
         <v>21</v>
       </c>
-      <c r="L176" t="str">
+      <c r="N176" t="str">
         <f t="shared" si="8"/>
         <v>836-01-01</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>30</v>
       </c>
@@ -6759,12 +6774,12 @@
       <c r="I177" t="s">
         <v>40</v>
       </c>
-      <c r="L177" t="str">
+      <c r="N177" t="str">
         <f t="shared" si="8"/>
         <v>836-01-01</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>30</v>
       </c>
@@ -6791,12 +6806,12 @@
       <c r="I178" t="s">
         <v>21</v>
       </c>
-      <c r="L178" t="str">
+      <c r="N178" t="str">
         <f t="shared" si="8"/>
         <v>836-01-01</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>30</v>
       </c>
@@ -6823,12 +6838,12 @@
       <c r="I179" t="s">
         <v>192</v>
       </c>
-      <c r="L179" t="str">
+      <c r="N179" t="str">
         <f t="shared" si="8"/>
         <v>836-01-01</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>30</v>
       </c>
@@ -6855,12 +6870,12 @@
       <c r="I180" t="s">
         <v>21</v>
       </c>
-      <c r="L180" t="str">
+      <c r="N180" t="str">
         <f t="shared" si="8"/>
         <v>836-01-01</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>30</v>
       </c>
@@ -6884,15 +6899,15 @@
       <c r="G181">
         <v>3</v>
       </c>
-      <c r="J181" t="s">
+      <c r="M181" t="s">
         <v>88</v>
       </c>
-      <c r="L181" t="str">
+      <c r="N181" t="str">
         <f t="shared" si="8"/>
         <v>836-01-01</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>30</v>
       </c>
@@ -6919,12 +6934,12 @@
       <c r="I182" t="s">
         <v>69</v>
       </c>
-      <c r="L182" t="str">
+      <c r="N182" t="str">
         <f t="shared" si="8"/>
         <v>836-01-01</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>30</v>
       </c>
@@ -6951,12 +6966,12 @@
       <c r="I183" t="s">
         <v>199</v>
       </c>
-      <c r="L183" t="str">
+      <c r="N183" t="str">
         <f t="shared" si="8"/>
         <v>836-01-01</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>30</v>
       </c>
@@ -6986,12 +7001,12 @@
       <c r="J184" t="s">
         <v>166</v>
       </c>
-      <c r="L184" t="str">
+      <c r="N184" t="str">
         <f t="shared" si="8"/>
         <v>838-01-01</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>116</v>
       </c>
@@ -7021,12 +7036,12 @@
       <c r="J185" t="s">
         <v>167</v>
       </c>
-      <c r="L185" t="str">
+      <c r="N185" t="str">
         <f t="shared" si="8"/>
         <v>862-01-01</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>30</v>
       </c>
@@ -7050,15 +7065,15 @@
       <c r="G186">
         <v>3</v>
       </c>
-      <c r="J186" t="s">
+      <c r="M186" t="s">
         <v>87</v>
       </c>
-      <c r="L186" t="str">
+      <c r="N186" t="str">
         <f t="shared" si="8"/>
         <v>870-01-01</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>50</v>
       </c>
@@ -7085,12 +7100,12 @@
       <c r="I187" t="s">
         <v>185</v>
       </c>
-      <c r="L187" t="str">
+      <c r="N187" t="str">
         <f t="shared" si="8"/>
         <v>874-01-01</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>51</v>
       </c>
@@ -7114,12 +7129,12 @@
       <c r="G188">
         <v>3</v>
       </c>
-      <c r="L188" t="str">
+      <c r="N188" t="str">
         <f t="shared" si="8"/>
         <v>878-01-01</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>30</v>
       </c>
@@ -7146,12 +7161,12 @@
       <c r="I189" t="s">
         <v>32</v>
       </c>
-      <c r="L189" t="str">
+      <c r="N189" t="str">
         <f t="shared" si="8"/>
         <v>879-01-01</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>52</v>
       </c>
@@ -7178,12 +7193,12 @@
       <c r="I190" t="s">
         <v>53</v>
       </c>
-      <c r="L190" t="str">
+      <c r="N190" t="str">
         <f t="shared" si="8"/>
         <v>879-01-01</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>124</v>
       </c>
@@ -7213,12 +7228,12 @@
       <c r="J191" t="s">
         <v>167</v>
       </c>
-      <c r="L191" t="str">
+      <c r="N191" t="str">
         <f t="shared" si="8"/>
         <v>885-01-01</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>30</v>
       </c>
@@ -7245,12 +7260,12 @@
       <c r="I192" t="s">
         <v>69</v>
       </c>
-      <c r="L192" t="str">
+      <c r="N192" t="str">
         <f t="shared" si="8"/>
         <v>885-01-01</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>121</v>
       </c>
@@ -7280,12 +7295,12 @@
       <c r="J193" t="s">
         <v>167</v>
       </c>
-      <c r="L193" t="str">
+      <c r="N193" t="str">
         <f t="shared" si="8"/>
         <v>890-01-01</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>154</v>
       </c>
@@ -7315,12 +7330,12 @@
       <c r="J194" t="s">
         <v>161</v>
       </c>
-      <c r="L194" t="str">
-        <f t="shared" ref="L194:L243" si="11">C194&amp;"-01-01"</f>
+      <c r="N194" t="str">
+        <f t="shared" ref="N194:N243" si="11">C194&amp;"-01-01"</f>
         <v>892-01-01</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>154</v>
       </c>
@@ -7350,12 +7365,12 @@
       <c r="J195" t="s">
         <v>161</v>
       </c>
-      <c r="L195" t="str">
+      <c r="N195" t="str">
         <f t="shared" si="11"/>
         <v>892-01-01</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>154</v>
       </c>
@@ -7385,12 +7400,12 @@
       <c r="J196" t="s">
         <v>161</v>
       </c>
-      <c r="L196" t="str">
+      <c r="N196" t="str">
         <f t="shared" si="11"/>
         <v>892-01-01</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>20</v>
       </c>
@@ -7423,12 +7438,12 @@
       <c r="J197" t="s">
         <v>161</v>
       </c>
-      <c r="L197" t="str">
+      <c r="N197" t="str">
         <f t="shared" si="11"/>
         <v>892-01-01</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -7455,12 +7470,12 @@
       <c r="I198" t="s">
         <v>21</v>
       </c>
-      <c r="L198" t="str">
+      <c r="N198" t="str">
         <f t="shared" si="11"/>
         <v>892-01-01</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>20</v>
       </c>
@@ -7487,12 +7502,12 @@
       <c r="I199" t="s">
         <v>34</v>
       </c>
-      <c r="L199" t="str">
+      <c r="N199" t="str">
         <f t="shared" si="11"/>
         <v>892-01-01</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>20</v>
       </c>
@@ -7519,12 +7534,12 @@
       <c r="I200" t="s">
         <v>58</v>
       </c>
-      <c r="L200" t="str">
+      <c r="N200" t="str">
         <f t="shared" si="11"/>
         <v>892-01-01</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>20</v>
       </c>
@@ -7551,12 +7566,12 @@
       <c r="I201" t="s">
         <v>31</v>
       </c>
-      <c r="L201" t="str">
+      <c r="N201" t="str">
         <f t="shared" si="11"/>
         <v>892-01-01</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>20</v>
       </c>
@@ -7583,12 +7598,12 @@
       <c r="I202" t="s">
         <v>21</v>
       </c>
-      <c r="L202" t="str">
+      <c r="N202" t="str">
         <f t="shared" si="11"/>
         <v>892-01-01</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>20</v>
       </c>
@@ -7615,12 +7630,12 @@
       <c r="I203" t="s">
         <v>192</v>
       </c>
-      <c r="L203" t="str">
+      <c r="N203" t="str">
         <f t="shared" si="11"/>
         <v>892-01-01</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>20</v>
       </c>
@@ -7644,15 +7659,15 @@
       <c r="G204">
         <v>3</v>
       </c>
-      <c r="J204" t="s">
+      <c r="M204" t="s">
         <v>88</v>
       </c>
-      <c r="L204" t="str">
+      <c r="N204" t="str">
         <f t="shared" si="11"/>
         <v>892-01-01</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>20</v>
       </c>
@@ -7679,12 +7694,12 @@
       <c r="I205" t="s">
         <v>69</v>
       </c>
-      <c r="L205" t="str">
+      <c r="N205" t="str">
         <f t="shared" si="11"/>
         <v>892-01-01</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>174</v>
       </c>
@@ -7711,12 +7726,12 @@
       <c r="I206" t="s">
         <v>185</v>
       </c>
-      <c r="L206" t="str">
+      <c r="N206" t="str">
         <f t="shared" si="11"/>
         <v>892-01-01</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>50</v>
       </c>
@@ -7740,12 +7755,12 @@
       <c r="G207">
         <v>4</v>
       </c>
-      <c r="L207" t="str">
+      <c r="N207" t="str">
         <f t="shared" si="11"/>
         <v>900-01-01</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>50</v>
       </c>
@@ -7772,12 +7787,12 @@
       <c r="I208" t="s">
         <v>69</v>
       </c>
-      <c r="L208" t="str">
+      <c r="N208" t="str">
         <f t="shared" si="11"/>
         <v>902-01-01</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>20</v>
       </c>
@@ -7804,12 +7819,12 @@
       <c r="J209" t="s">
         <v>92</v>
       </c>
-      <c r="L209" t="str">
+      <c r="N209" t="str">
         <f t="shared" si="11"/>
         <v>905-01-01</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>20</v>
       </c>
@@ -7833,12 +7848,12 @@
       <c r="G210">
         <v>3</v>
       </c>
-      <c r="L210" t="str">
+      <c r="N210" t="str">
         <f t="shared" si="11"/>
         <v>911-01-01</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>174</v>
       </c>
@@ -7865,12 +7880,12 @@
       <c r="I211" t="s">
         <v>175</v>
       </c>
-      <c r="L211" t="str">
+      <c r="N211" t="str">
         <f t="shared" si="11"/>
         <v>911-01-01</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>50</v>
       </c>
@@ -7897,12 +7912,12 @@
       <c r="I212" t="s">
         <v>58</v>
       </c>
-      <c r="L212" t="str">
+      <c r="N212" t="str">
         <f t="shared" si="11"/>
         <v>913-01-01</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>20</v>
       </c>
@@ -7929,12 +7944,12 @@
       <c r="I213" t="s">
         <v>58</v>
       </c>
-      <c r="L213" t="str">
+      <c r="N213" t="str">
         <f t="shared" si="11"/>
         <v>916-01-01</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>20</v>
       </c>
@@ -7964,12 +7979,12 @@
       <c r="I214" t="s">
         <v>58</v>
       </c>
-      <c r="L214" t="str">
+      <c r="N214" t="str">
         <f t="shared" si="11"/>
         <v>927-01-01</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>63</v>
       </c>
@@ -7993,12 +8008,12 @@
       <c r="G215">
         <v>3</v>
       </c>
-      <c r="L215" t="str">
+      <c r="N215" t="str">
         <f t="shared" si="11"/>
         <v>969-01-01</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>63</v>
       </c>
@@ -8028,12 +8043,12 @@
       <c r="I216" t="s">
         <v>65</v>
       </c>
-      <c r="L216" t="str">
+      <c r="N216" t="str">
         <f t="shared" si="11"/>
         <v>971-01-01</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>63</v>
       </c>
@@ -8063,12 +8078,12 @@
       <c r="I217" t="s">
         <v>65</v>
       </c>
-      <c r="L217" t="str">
+      <c r="N217" t="str">
         <f t="shared" si="11"/>
         <v>971-01-01</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>24</v>
       </c>
@@ -8095,12 +8110,12 @@
       <c r="I218" t="s">
         <v>58</v>
       </c>
-      <c r="L218" t="str">
+      <c r="N218" t="str">
         <f t="shared" si="11"/>
         <v>977-01-01</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>63</v>
       </c>
@@ -8130,12 +8145,12 @@
       <c r="I219" t="s">
         <v>65</v>
       </c>
-      <c r="L219" t="str">
+      <c r="N219" t="str">
         <f t="shared" si="11"/>
         <v>987-01-01</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E220" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8144,12 +8159,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L220" t="str">
+      <c r="N220" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E221" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8158,12 +8173,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L221" t="str">
+      <c r="N221" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E222" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8172,12 +8187,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L222" t="str">
+      <c r="N222" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E223" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8186,12 +8201,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L223" t="str">
+      <c r="N223" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E224" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8200,12 +8215,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L224" t="str">
+      <c r="N224" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="225" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E225" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8214,12 +8229,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L225" t="str">
+      <c r="N225" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="226" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E226" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8228,12 +8243,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L226" t="str">
+      <c r="N226" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="227" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E227" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8242,12 +8257,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L227" t="str">
+      <c r="N227" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="228" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E228" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8256,12 +8271,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L228" t="str">
+      <c r="N228" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="229" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E229" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8270,12 +8285,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L229" t="str">
+      <c r="N229" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="230" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E230" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8284,12 +8299,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L230" t="str">
+      <c r="N230" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="231" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E231" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8298,12 +8313,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L231" t="str">
+      <c r="N231" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="232" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E232" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8312,12 +8327,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L232" t="str">
+      <c r="N232" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="233" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E233" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8326,12 +8341,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L233" t="str">
+      <c r="N233" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="234" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E234" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8340,12 +8355,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L234" t="str">
+      <c r="N234" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="235" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E235" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8354,12 +8369,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L235" t="str">
+      <c r="N235" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="236" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E236" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8368,12 +8383,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L236" t="str">
+      <c r="N236" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="237" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E237" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8382,12 +8397,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L237" t="str">
+      <c r="N237" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="238" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E238" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8396,12 +8411,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L238" t="str">
+      <c r="N238" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="239" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E239" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8410,12 +8425,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L239" t="str">
+      <c r="N239" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="240" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E240" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8424,12 +8439,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L240" t="str">
+      <c r="N240" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="241" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E241" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8438,12 +8453,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L241" t="str">
+      <c r="N241" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="242" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E242" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8452,12 +8467,12 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L242" t="str">
+      <c r="N242" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
-    <row r="243" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E243" t="str">
         <f t="shared" si="9"/>
         <v>-01-01</v>
@@ -8466,7 +8481,7 @@
         <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
-      <c r="L243" t="str">
+      <c r="N243" t="str">
         <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
@@ -8485,7 +8500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
@@ -8563,11 +8578,11 @@
         <v>745</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f>E2&amp;"-01-01"</f>
+        <f t="shared" ref="G2:G65" si="0">E2&amp;"-01-01"</f>
         <v>661-01-01</v>
       </c>
       <c r="H2" s="2" t="str">
-        <f>F2-1&amp;"-12-31"</f>
+        <f t="shared" ref="H2:H65" si="1">F2-1&amp;"-12-31"</f>
         <v>744-12-31</v>
       </c>
       <c r="J2" t="s">
@@ -8577,7 +8592,7 @@
         <v>224</v>
       </c>
       <c r="O2" s="2" t="str">
-        <f>F2&amp;"-01-01"</f>
+        <f t="shared" ref="O2:O33" si="2">F2&amp;"-01-01"</f>
         <v>745-01-01</v>
       </c>
     </row>
@@ -8595,18 +8610,18 @@
         <v>692</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f>E3&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>684-01-01</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f>F3-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>691-12-31</v>
       </c>
       <c r="M3" t="s">
         <v>225</v>
       </c>
       <c r="O3" s="2" t="str">
-        <f>F3&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>692-01-01</v>
       </c>
     </row>
@@ -8624,11 +8639,11 @@
         <v>750</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f>E4&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>745-01-01</v>
       </c>
       <c r="H4" s="2" t="str">
-        <f>F4-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>749-12-31</v>
       </c>
       <c r="I4" t="s">
@@ -8638,7 +8653,7 @@
         <v>226</v>
       </c>
       <c r="O4" s="2" t="str">
-        <f>F4&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>750-01-01</v>
       </c>
     </row>
@@ -8656,18 +8671,18 @@
         <v>752</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f>E5&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>750-01-01</v>
       </c>
       <c r="H5" s="2" t="str">
-        <f>F5-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>751-12-31</v>
       </c>
       <c r="M5" t="s">
         <v>227</v>
       </c>
       <c r="O5" s="2" t="str">
-        <f>F5&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>752-01-01</v>
       </c>
     </row>
@@ -8685,18 +8700,18 @@
         <v>762</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f>E6&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>752-01-01</v>
       </c>
       <c r="H6" s="2" t="str">
-        <f>F6-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>761-12-31</v>
       </c>
       <c r="M6" t="s">
         <v>228</v>
       </c>
       <c r="O6" s="2" t="str">
-        <f>F6&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>762-01-01</v>
       </c>
     </row>
@@ -8714,11 +8729,11 @@
         <v>774</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f>E7&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>762-01-01</v>
       </c>
       <c r="H7" s="2" t="str">
-        <f>F7-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>773-12-31</v>
       </c>
       <c r="J7" t="s">
@@ -8728,7 +8743,7 @@
         <v>229</v>
       </c>
       <c r="O7" s="2" t="str">
-        <f>F7&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>774-01-01</v>
       </c>
     </row>
@@ -8746,11 +8761,11 @@
         <v>775</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f>E8&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>774-01-01</v>
       </c>
       <c r="H8" s="2" t="str">
-        <f>F8-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>774-12-31</v>
       </c>
       <c r="I8" t="s">
@@ -8760,7 +8775,7 @@
         <v>231</v>
       </c>
       <c r="O8" s="2" t="str">
-        <f>F8&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>775-01-01</v>
       </c>
     </row>
@@ -8778,11 +8793,11 @@
         <v>782</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f>E9&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>775-01-01</v>
       </c>
       <c r="H9" s="2" t="str">
-        <f>F9-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>781-12-31</v>
       </c>
       <c r="I9" t="s">
@@ -8792,7 +8807,7 @@
         <v>232</v>
       </c>
       <c r="O9" s="2" t="str">
-        <f>F9&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>782-01-01</v>
       </c>
     </row>
@@ -8810,11 +8825,11 @@
         <v>786</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f>E10&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>782-01-01</v>
       </c>
       <c r="H10" s="2" t="str">
-        <f>F10-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>785-12-31</v>
       </c>
       <c r="I10" t="s">
@@ -8827,7 +8842,7 @@
         <v>233</v>
       </c>
       <c r="O10" s="2" t="str">
-        <f>F10&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>786-01-01</v>
       </c>
     </row>
@@ -8845,11 +8860,11 @@
         <v>796</v>
       </c>
       <c r="G11" s="2" t="str">
-        <f>E11&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>786-01-01</v>
       </c>
       <c r="H11" s="2" t="str">
-        <f>F11-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>795-12-31</v>
       </c>
       <c r="I11" t="s">
@@ -8865,7 +8880,7 @@
         <v>103</v>
       </c>
       <c r="O11" s="2" t="str">
-        <f>F11&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>796-01-01</v>
       </c>
     </row>
@@ -8883,11 +8898,11 @@
         <v>809</v>
       </c>
       <c r="G12" s="2" t="str">
-        <f>E12&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>796-01-01</v>
       </c>
       <c r="H12" s="2" t="str">
-        <f>F12-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>808-12-31</v>
       </c>
       <c r="I12" t="s">
@@ -8897,7 +8912,7 @@
         <v>236</v>
       </c>
       <c r="O12" s="2" t="str">
-        <f>F12&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>809-01-01</v>
       </c>
     </row>
@@ -8915,11 +8930,11 @@
         <v>813</v>
       </c>
       <c r="G13" s="2" t="str">
-        <f>E13&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>809-01-01</v>
       </c>
       <c r="H13" s="2" t="str">
-        <f>F13-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>812-12-31</v>
       </c>
       <c r="I13" t="s">
@@ -8932,7 +8947,7 @@
         <v>237</v>
       </c>
       <c r="O13" s="2" t="str">
-        <f>F13&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>813-01-01</v>
       </c>
     </row>
@@ -8950,11 +8965,11 @@
         <v>836</v>
       </c>
       <c r="G14" s="2" t="str">
-        <f>E14&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>813-01-01</v>
       </c>
       <c r="H14" s="2" t="str">
-        <f>F14-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>835-12-31</v>
       </c>
       <c r="I14" t="s">
@@ -8967,7 +8982,7 @@
         <v>238</v>
       </c>
       <c r="O14" s="2" t="str">
-        <f>F14&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>836-01-01</v>
       </c>
     </row>
@@ -8985,18 +9000,18 @@
         <v>842</v>
       </c>
       <c r="G15" s="2" t="str">
-        <f>E15&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>836-01-01</v>
       </c>
       <c r="H15" s="2" t="str">
-        <f>F15-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>841-12-31</v>
       </c>
       <c r="M15" t="s">
         <v>239</v>
       </c>
       <c r="O15" s="2" t="str">
-        <f>F15&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>842-01-01</v>
       </c>
     </row>
@@ -9014,18 +9029,18 @@
         <v>859</v>
       </c>
       <c r="G16" s="2" t="str">
-        <f>E16&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>842-01-01</v>
       </c>
       <c r="H16" s="2" t="str">
-        <f>F16-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>858-12-31</v>
       </c>
       <c r="M16" t="s">
         <v>244</v>
       </c>
       <c r="O16" s="2" t="str">
-        <f>F16&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>859-01-01</v>
       </c>
     </row>
@@ -9043,18 +9058,18 @@
         <v>861</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f>E17&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>859-01-01</v>
       </c>
       <c r="H17" s="2" t="str">
-        <f>F17-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>860-12-31</v>
       </c>
       <c r="M17" t="s">
         <v>245</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f>F17&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>861-01-01</v>
       </c>
     </row>
@@ -9072,18 +9087,18 @@
         <v>892</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f>E18&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>861-01-01</v>
       </c>
       <c r="H18" s="2" t="str">
-        <f>F18-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>891-12-31</v>
       </c>
       <c r="M18" t="s">
         <v>243</v>
       </c>
       <c r="O18" s="2" t="str">
-        <f>F18&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>892-01-01</v>
       </c>
     </row>
@@ -9101,18 +9116,18 @@
         <v>1000</v>
       </c>
       <c r="G19" s="2" t="str">
-        <f>E19&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>892-01-01</v>
       </c>
       <c r="H19" s="2" t="str">
-        <f>F19-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="M19" t="s">
         <v>246</v>
       </c>
       <c r="O19" s="2" t="str">
-        <f>F19&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -9130,18 +9145,18 @@
         <v>739</v>
       </c>
       <c r="G20" s="2" t="str">
-        <f>E20&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>661-01-01</v>
       </c>
       <c r="H20" s="2" t="str">
-        <f>F20-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>738-12-31</v>
       </c>
       <c r="I20" t="s">
         <v>183</v>
       </c>
       <c r="O20" s="2" t="str">
-        <f>F20&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>739-01-01</v>
       </c>
     </row>
@@ -9159,11 +9174,11 @@
         <v>710</v>
       </c>
       <c r="G21" s="2" t="str">
-        <f>E21&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>661-01-01</v>
       </c>
       <c r="H21" s="2" t="str">
-        <f>F21-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>709-12-31</v>
       </c>
       <c r="I21" t="s">
@@ -9173,7 +9188,7 @@
         <v>188</v>
       </c>
       <c r="O21" s="2" t="str">
-        <f>F21&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>710-01-01</v>
       </c>
     </row>
@@ -9191,11 +9206,11 @@
         <v>687</v>
       </c>
       <c r="G22" s="2" t="str">
-        <f>E22&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>685-01-01</v>
       </c>
       <c r="H22" s="2" t="str">
-        <f>F22-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>686-12-31</v>
       </c>
       <c r="I22" t="s">
@@ -9205,7 +9220,7 @@
         <v>247</v>
       </c>
       <c r="O22" s="2" t="str">
-        <f>F22&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>687-01-01</v>
       </c>
     </row>
@@ -9223,11 +9238,11 @@
         <v>930</v>
       </c>
       <c r="G23" s="2" t="str">
-        <f>E23&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>750-01-01</v>
       </c>
       <c r="H23" s="2" t="str">
-        <f>F23-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>929-12-31</v>
       </c>
       <c r="I23" t="s">
@@ -9240,7 +9255,7 @@
         <v>248</v>
       </c>
       <c r="O23" s="2" t="str">
-        <f>F23&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>930-01-01</v>
       </c>
     </row>
@@ -9258,18 +9273,18 @@
         <v>1000</v>
       </c>
       <c r="G24" s="2" t="str">
-        <f>E24&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>756-01-01</v>
       </c>
       <c r="H24" s="2" t="str">
-        <f>F24-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="M24" t="s">
         <v>249</v>
       </c>
       <c r="O24" s="2" t="str">
-        <f>F24&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -9287,11 +9302,11 @@
         <v>809</v>
       </c>
       <c r="G25" s="2" t="str">
-        <f>E25&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>806-01-01</v>
       </c>
       <c r="H25" s="2" t="str">
-        <f>F25-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>808-12-31</v>
       </c>
       <c r="I25" t="s">
@@ -9304,7 +9319,7 @@
         <v>250</v>
       </c>
       <c r="O25" s="2" t="str">
-        <f>F25&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>809-01-01</v>
       </c>
     </row>
@@ -9322,11 +9337,11 @@
         <v>837</v>
       </c>
       <c r="G26" s="2" t="str">
-        <f>E26&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>817-01-01</v>
       </c>
       <c r="H26" s="2" t="str">
-        <f>F26-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>836-12-31</v>
       </c>
       <c r="I26" t="s">
@@ -9339,7 +9354,7 @@
         <v>251</v>
       </c>
       <c r="O26" s="2" t="str">
-        <f>F26&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>837-01-01</v>
       </c>
     </row>
@@ -9357,11 +9372,11 @@
         <v>1000</v>
       </c>
       <c r="G27" s="2" t="str">
-        <f>E27&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>819-01-01</v>
       </c>
       <c r="H27" s="2" t="str">
-        <f>F27-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="I27" t="s">
@@ -9371,7 +9386,7 @@
         <v>252</v>
       </c>
       <c r="O27" s="2" t="str">
-        <f>F27&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -9389,11 +9404,11 @@
         <v>997</v>
       </c>
       <c r="G28" s="2" t="str">
-        <f>E28&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>847-01-01</v>
       </c>
       <c r="H28" s="2" t="str">
-        <f>F28-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>996-12-31</v>
       </c>
       <c r="I28" t="s">
@@ -9403,7 +9418,7 @@
         <v>254</v>
       </c>
       <c r="O28" s="2" t="str">
-        <f>F28&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>997-01-01</v>
       </c>
     </row>
@@ -9421,11 +9436,11 @@
         <v>876</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f>E29&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>861-01-01</v>
       </c>
       <c r="H29" s="2" t="str">
-        <f>F29-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>875-12-31</v>
       </c>
       <c r="I29" t="s">
@@ -9438,7 +9453,7 @@
         <v>93</v>
       </c>
       <c r="O29" s="2" t="str">
-        <f>F29&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>876-01-01</v>
       </c>
     </row>
@@ -9456,11 +9471,11 @@
         <v>892</v>
       </c>
       <c r="G30" s="2" t="str">
-        <f>E30&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>873-01-01</v>
       </c>
       <c r="H30" s="2" t="str">
-        <f>F30-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>891-12-31</v>
       </c>
       <c r="I30" t="s">
@@ -9470,7 +9485,7 @@
         <v>255</v>
       </c>
       <c r="O30" s="2" t="str">
-        <f>F30&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>892-01-01</v>
       </c>
     </row>
@@ -9488,11 +9503,11 @@
         <v>879</v>
       </c>
       <c r="G31" s="2" t="str">
-        <f>E31&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>876-01-01</v>
       </c>
       <c r="H31" s="2" t="str">
-        <f>F31-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>878-12-31</v>
       </c>
       <c r="M31" t="s">
@@ -9502,7 +9517,7 @@
         <v>95</v>
       </c>
       <c r="O31" s="2" t="str">
-        <f>F31&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>879-01-01</v>
       </c>
     </row>
@@ -9520,11 +9535,11 @@
         <v>911</v>
       </c>
       <c r="G32" s="2" t="str">
-        <f>E32&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>879-01-01</v>
       </c>
       <c r="H32" s="2" t="str">
-        <f>F32-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>910-12-31</v>
       </c>
       <c r="I32" t="s">
@@ -9534,7 +9549,7 @@
         <v>257</v>
       </c>
       <c r="O32" s="2" t="str">
-        <f>F32&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>911-01-01</v>
       </c>
     </row>
@@ -9552,11 +9567,11 @@
         <v>890</v>
       </c>
       <c r="G33" s="2" t="str">
-        <f>E33&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>885-01-01</v>
       </c>
       <c r="H33" s="2" t="str">
-        <f>F33-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>889-12-31</v>
       </c>
       <c r="I33" s="3" t="s">
@@ -9569,7 +9584,7 @@
         <v>258</v>
       </c>
       <c r="O33" s="2" t="str">
-        <f>F33&amp;"-01-01"</f>
+        <f t="shared" si="2"/>
         <v>890-01-01</v>
       </c>
     </row>
@@ -9587,11 +9602,11 @@
         <v>929</v>
       </c>
       <c r="G34" s="2" t="str">
-        <f>E34&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>890-01-01</v>
       </c>
       <c r="H34" s="2" t="str">
-        <f>F34-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>928-12-31</v>
       </c>
       <c r="I34" s="3" t="s">
@@ -9604,7 +9619,7 @@
         <v>259</v>
       </c>
       <c r="O34" s="2" t="str">
-        <f>F34&amp;"-01-01"</f>
+        <f t="shared" ref="O34:O65" si="3">F34&amp;"-01-01"</f>
         <v>929-01-01</v>
       </c>
     </row>
@@ -9622,11 +9637,11 @@
         <v>999</v>
       </c>
       <c r="G35" s="2" t="str">
-        <f>E35&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>892-01-01</v>
       </c>
       <c r="H35" s="2" t="str">
-        <f>F35-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>998-12-31</v>
       </c>
       <c r="I35" t="s">
@@ -9639,7 +9654,7 @@
         <v>260</v>
       </c>
       <c r="O35" s="2" t="str">
-        <f>F35&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>999-01-01</v>
       </c>
     </row>
@@ -9657,11 +9672,11 @@
         <v>929</v>
       </c>
       <c r="G36" s="2" t="str">
-        <f>E36&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>897-01-01</v>
       </c>
       <c r="H36" s="2" t="str">
-        <f>F36-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>928-12-31</v>
       </c>
       <c r="I36" t="s">
@@ -9674,7 +9689,7 @@
         <v>261</v>
       </c>
       <c r="O36" s="2" t="str">
-        <f>F36&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>929-01-01</v>
       </c>
     </row>
@@ -9692,11 +9707,11 @@
         <v>1000</v>
       </c>
       <c r="G37" s="2" t="str">
-        <f>E37&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>897-01-01</v>
       </c>
       <c r="H37" s="2" t="str">
-        <f>F37-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="I37" t="s">
@@ -9706,7 +9721,7 @@
         <v>262</v>
       </c>
       <c r="O37" s="2" t="str">
-        <f>F37&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -9724,11 +9739,11 @@
         <v>930</v>
       </c>
       <c r="G38" s="2" t="str">
-        <f>E38&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>900-01-01</v>
       </c>
       <c r="H38" s="2" t="str">
-        <f>F38-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>929-12-31</v>
       </c>
       <c r="I38" t="s">
@@ -9741,7 +9756,7 @@
         <v>141</v>
       </c>
       <c r="O38" s="2" t="str">
-        <f>F38&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>930-01-01</v>
       </c>
     </row>
@@ -9759,18 +9774,18 @@
         <v>1000</v>
       </c>
       <c r="G39" s="2" t="str">
-        <f>E39&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>916-01-01</v>
       </c>
       <c r="H39" s="2" t="str">
-        <f>F39-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="I39" t="s">
         <v>70</v>
       </c>
       <c r="O39" s="2" t="str">
-        <f>F39&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -9788,11 +9803,11 @@
         <v>969</v>
       </c>
       <c r="G40" s="2" t="str">
-        <f>E40&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>920-01-01</v>
       </c>
       <c r="H40" s="2" t="str">
-        <f>F40-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>968-12-31</v>
       </c>
       <c r="I40" t="s">
@@ -9802,7 +9817,7 @@
         <v>263</v>
       </c>
       <c r="O40" s="2" t="str">
-        <f>F40&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>969-01-01</v>
       </c>
     </row>
@@ -9820,11 +9835,11 @@
         <v>1000</v>
       </c>
       <c r="G41" s="2" t="str">
-        <f>E41&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>920-01-01</v>
       </c>
       <c r="H41" s="2" t="str">
-        <f>F41-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="I41" t="s">
@@ -9837,7 +9852,7 @@
         <v>264</v>
       </c>
       <c r="O41" s="2" t="str">
-        <f>F41&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -9855,18 +9870,18 @@
         <v>1000</v>
       </c>
       <c r="G42" s="2" t="str">
-        <f>E42&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>923-01-01</v>
       </c>
       <c r="H42" s="2" t="str">
-        <f>F42-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="I42" t="s">
         <v>53</v>
       </c>
       <c r="O42" s="2" t="str">
-        <f>F42&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -9884,11 +9899,11 @@
         <v>961</v>
       </c>
       <c r="G43" s="2" t="str">
-        <f>E43&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>929-01-01</v>
       </c>
       <c r="H43" s="2" t="str">
-        <f>F43-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>960-12-31</v>
       </c>
       <c r="I43" s="3" t="s">
@@ -9901,7 +9916,7 @@
         <v>265</v>
       </c>
       <c r="O43" s="2" t="str">
-        <f>F43&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>961-01-01</v>
       </c>
     </row>
@@ -9919,11 +9934,11 @@
         <v>1000</v>
       </c>
       <c r="G44" s="2" t="str">
-        <f>E44&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>929-01-01</v>
       </c>
       <c r="H44" s="2" t="str">
-        <f>F44-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="I44" t="s">
@@ -9936,7 +9951,7 @@
         <v>114</v>
       </c>
       <c r="O44" s="2" t="str">
-        <f>F44&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -9954,11 +9969,11 @@
         <v>935</v>
       </c>
       <c r="G45" s="2" t="str">
-        <f>E45&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>931-01-01</v>
       </c>
       <c r="H45" s="2" t="str">
-        <f>F45-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>934-12-31</v>
       </c>
       <c r="I45" t="s">
@@ -9971,7 +9986,7 @@
         <v>135</v>
       </c>
       <c r="O45" s="2" t="str">
-        <f>F45&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>935-01-01</v>
       </c>
     </row>
@@ -9989,18 +10004,18 @@
         <v>1000</v>
       </c>
       <c r="G46" s="2" t="str">
-        <f>E46&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>934-01-01</v>
       </c>
       <c r="H46" s="2" t="str">
-        <f>F46-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="M46" t="s">
         <v>266</v>
       </c>
       <c r="O46" s="2" t="str">
-        <f>F46&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -10018,11 +10033,11 @@
         <v>943</v>
       </c>
       <c r="G47" s="2" t="str">
-        <f>E47&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>935-01-01</v>
       </c>
       <c r="H47" s="2" t="str">
-        <f>F47-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>942-12-31</v>
       </c>
       <c r="I47" t="s">
@@ -10035,7 +10050,7 @@
         <v>137</v>
       </c>
       <c r="O47" s="2" t="str">
-        <f>F47&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>943-01-01</v>
       </c>
     </row>
@@ -10053,11 +10068,11 @@
         <v>1000</v>
       </c>
       <c r="G48" s="2" t="str">
-        <f>E48&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>943-01-01</v>
       </c>
       <c r="H48" s="2" t="str">
-        <f>F48-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="I48" t="s">
@@ -10070,7 +10085,7 @@
         <v>139</v>
       </c>
       <c r="O48" s="2" t="str">
-        <f>F48&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -10088,11 +10103,11 @@
         <v>962</v>
       </c>
       <c r="G49" s="2" t="str">
-        <f>E49&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>944-01-01</v>
       </c>
       <c r="H49" s="2" t="str">
-        <f>F49-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>961-12-31</v>
       </c>
       <c r="I49" t="s">
@@ -10105,7 +10120,7 @@
         <v>217</v>
       </c>
       <c r="O49" s="2" t="str">
-        <f>F49&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>962-01-01</v>
       </c>
     </row>
@@ -10123,11 +10138,11 @@
         <v>1000</v>
       </c>
       <c r="G50" s="2" t="str">
-        <f>E50&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>955-01-01</v>
       </c>
       <c r="H50" s="2" t="str">
-        <f>F50-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="I50" t="s">
@@ -10137,7 +10152,7 @@
         <v>267</v>
       </c>
       <c r="O50" s="2" t="str">
-        <f>F50&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -10155,11 +10170,11 @@
         <v>1000</v>
       </c>
       <c r="G51" s="2" t="str">
-        <f>E51&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>961-01-01</v>
       </c>
       <c r="H51" s="2" t="str">
-        <f>F51-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="I51" t="s">
@@ -10172,7 +10187,7 @@
         <v>268</v>
       </c>
       <c r="O51" s="2" t="str">
-        <f>F51&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -10190,11 +10205,11 @@
         <v>967</v>
       </c>
       <c r="G52" s="2" t="str">
-        <f>E52&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>962-01-01</v>
       </c>
       <c r="H52" s="2" t="str">
-        <f>F52-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>966-12-31</v>
       </c>
       <c r="I52" t="s">
@@ -10207,7 +10222,7 @@
         <v>220</v>
       </c>
       <c r="O52" s="2" t="str">
-        <f>F52&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>967-01-01</v>
       </c>
     </row>
@@ -10225,18 +10240,18 @@
         <v>1000</v>
       </c>
       <c r="G53" s="2" t="str">
-        <f>E53&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>969-01-01</v>
       </c>
       <c r="H53" s="2" t="str">
-        <f>F53-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="M53" t="s">
         <v>269</v>
       </c>
       <c r="O53" s="2" t="str">
-        <f>F53&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -10254,11 +10269,11 @@
         <v>1000</v>
       </c>
       <c r="G54" s="2" t="str">
-        <f>E54&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>979-01-01</v>
       </c>
       <c r="H54" s="2" t="str">
-        <f>F54-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="I54" t="s">
@@ -10271,7 +10286,7 @@
         <v>270</v>
       </c>
       <c r="O54" s="2" t="str">
-        <f>F54&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -10289,11 +10304,11 @@
         <v>1000</v>
       </c>
       <c r="G55" s="2" t="str">
-        <f>E55&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>990-01-01</v>
       </c>
       <c r="H55" s="2" t="str">
-        <f>F55-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="I55" t="s">
@@ -10306,7 +10321,7 @@
         <v>271</v>
       </c>
       <c r="O55" s="2" t="str">
-        <f>F55&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -10324,15 +10339,15 @@
         <v>1000</v>
       </c>
       <c r="G56" s="2" t="str">
-        <f>E56&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>661-01-01</v>
       </c>
       <c r="H56" s="2" t="str">
-        <f>F56-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="O56" s="2" t="str">
-        <f>F56&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -10350,11 +10365,11 @@
         <v>1000</v>
       </c>
       <c r="G57" s="2" t="str">
-        <f>E57&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>661-01-01</v>
       </c>
       <c r="H57" s="2" t="str">
-        <f>F57-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="I57" t="s">
@@ -10364,7 +10379,7 @@
         <v>128</v>
       </c>
       <c r="O57" s="2" t="str">
-        <f>F57&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -10382,18 +10397,18 @@
         <v>1000</v>
       </c>
       <c r="G58" s="2" t="str">
-        <f>E58&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>661-01-01</v>
       </c>
       <c r="H58" s="2" t="str">
-        <f>F58-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="I58" t="s">
         <v>171</v>
       </c>
       <c r="O58" s="2" t="str">
-        <f>F58&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -10411,15 +10426,15 @@
         <v>1000</v>
       </c>
       <c r="G59" s="2" t="str">
-        <f>E59&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>661-01-01</v>
       </c>
       <c r="H59" s="2" t="str">
-        <f>F59-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="O59" s="2" t="str">
-        <f>F59&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -10437,18 +10452,18 @@
         <v>710</v>
       </c>
       <c r="G60" s="2" t="str">
-        <f>E60&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>661-01-01</v>
       </c>
       <c r="H60" s="2" t="str">
-        <f>F60-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>709-12-31</v>
       </c>
       <c r="J60" t="s">
         <v>153</v>
       </c>
       <c r="O60" s="2" t="str">
-        <f>F60&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>710-01-01</v>
       </c>
     </row>
@@ -10466,18 +10481,18 @@
         <v>693</v>
       </c>
       <c r="G61" s="2" t="str">
-        <f>E61&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>661-01-01</v>
       </c>
       <c r="H61" s="2" t="str">
-        <f>F61-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>692-12-31</v>
       </c>
       <c r="I61" t="s">
         <v>205</v>
       </c>
       <c r="O61" s="2" t="str">
-        <f>F61&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>693-01-01</v>
       </c>
     </row>
@@ -10495,15 +10510,15 @@
         <v>1000</v>
       </c>
       <c r="G62" s="2" t="str">
-        <f>E62&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>661-01-01</v>
       </c>
       <c r="H62" s="2" t="str">
-        <f>F62-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="O62" s="2" t="str">
-        <f>F62&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -10521,15 +10536,15 @@
         <v>1000</v>
       </c>
       <c r="G63" s="2" t="str">
-        <f>E63&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>661-01-01</v>
       </c>
       <c r="H63" s="2" t="str">
-        <f>F63-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="O63" s="2" t="str">
-        <f>F63&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -10547,18 +10562,18 @@
         <v>1000</v>
       </c>
       <c r="G64" s="2" t="str">
-        <f>E64&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>661-01-01</v>
       </c>
       <c r="H64" s="2" t="str">
-        <f>F64-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="I64" t="s">
         <v>203</v>
       </c>
       <c r="O64" s="2" t="str">
-        <f>F64&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -10576,11 +10591,11 @@
         <v>1000</v>
       </c>
       <c r="G65" s="2" t="str">
-        <f>E65&amp;"-01-01"</f>
+        <f t="shared" si="0"/>
         <v>661-01-01</v>
       </c>
       <c r="H65" s="2" t="str">
-        <f>F65-1&amp;"-12-31"</f>
+        <f t="shared" si="1"/>
         <v>999-12-31</v>
       </c>
       <c r="I65" t="s">
@@ -10590,7 +10605,7 @@
         <v>156</v>
       </c>
       <c r="O65" s="2" t="str">
-        <f>F65&amp;"-01-01"</f>
+        <f t="shared" si="3"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -10608,15 +10623,15 @@
         <v>1000</v>
       </c>
       <c r="G66" s="2" t="str">
-        <f>E66&amp;"-01-01"</f>
+        <f t="shared" ref="G66:G129" si="4">E66&amp;"-01-01"</f>
         <v>661-01-01</v>
       </c>
       <c r="H66" s="2" t="str">
-        <f>F66-1&amp;"-12-31"</f>
+        <f t="shared" ref="H66:H129" si="5">F66-1&amp;"-12-31"</f>
         <v>999-12-31</v>
       </c>
       <c r="O66" s="2" t="str">
-        <f>F66&amp;"-01-01"</f>
+        <f t="shared" ref="O66:O97" si="6">F66&amp;"-01-01"</f>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -10634,15 +10649,15 @@
         <v>1000</v>
       </c>
       <c r="G67" s="2" t="str">
-        <f>E67&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>661-01-01</v>
       </c>
       <c r="H67" s="2" t="str">
-        <f>F67-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>999-12-31</v>
       </c>
       <c r="O67" s="2" t="str">
-        <f>F67&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -10660,18 +10675,18 @@
         <v>1000</v>
       </c>
       <c r="G68" s="2" t="str">
-        <f>E68&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>661-01-01</v>
       </c>
       <c r="H68" s="2" t="str">
-        <f>F68-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>999-12-31</v>
       </c>
       <c r="J68" t="s">
         <v>150</v>
       </c>
       <c r="O68" s="2" t="str">
-        <f>F68&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -10689,15 +10704,15 @@
         <v>1000</v>
       </c>
       <c r="G69" s="2" t="str">
-        <f>E69&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>684-01-01</v>
       </c>
       <c r="H69" s="2" t="str">
-        <f>F69-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>999-12-31</v>
       </c>
       <c r="O69" s="2" t="str">
-        <f>F69&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -10715,15 +10730,15 @@
         <v>1000</v>
       </c>
       <c r="G70" s="2" t="str">
-        <f>E70&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>710-01-01</v>
       </c>
       <c r="H70" s="2" t="str">
-        <f>F70-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>999-12-31</v>
       </c>
       <c r="O70" s="2" t="str">
-        <f>F70&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -10741,11 +10756,11 @@
         <v>892</v>
       </c>
       <c r="G71" s="2" t="str">
-        <f>E71&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>739-01-01</v>
       </c>
       <c r="H71" s="2" t="str">
-        <f>F71-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>891-12-31</v>
       </c>
       <c r="I71" t="s">
@@ -10755,7 +10770,7 @@
         <v>184</v>
       </c>
       <c r="O71" s="2" t="str">
-        <f>F71&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>892-01-01</v>
       </c>
     </row>
@@ -10773,18 +10788,18 @@
         <v>999</v>
       </c>
       <c r="G72" s="2" t="str">
-        <f>E72&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>892-01-01</v>
       </c>
       <c r="H72" s="2" t="str">
-        <f>F72-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>998-12-31</v>
       </c>
       <c r="I72" t="s">
         <v>187</v>
       </c>
       <c r="O72" s="2" t="str">
-        <f>F72&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>999-01-01</v>
       </c>
     </row>
@@ -10802,11 +10817,11 @@
         <v>897</v>
       </c>
       <c r="G73" s="2" t="str">
-        <f>E73&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>661-01-01</v>
       </c>
       <c r="H73" s="2" t="str">
-        <f>F73-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>896-12-31</v>
       </c>
       <c r="I73" t="s">
@@ -10816,7 +10831,7 @@
         <v>157</v>
       </c>
       <c r="O73" s="2" t="str">
-        <f>F73&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>897-01-01</v>
       </c>
     </row>
@@ -10834,18 +10849,18 @@
         <v>750</v>
       </c>
       <c r="G74" s="2" t="str">
-        <f>E74&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>661-01-01</v>
       </c>
       <c r="H74" s="2" t="str">
-        <f>F74-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>749-12-31</v>
       </c>
       <c r="N74" t="s">
         <v>93</v>
       </c>
       <c r="O74" s="2" t="str">
-        <f>F74&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>750-01-01</v>
       </c>
     </row>
@@ -10863,15 +10878,15 @@
         <v>745</v>
       </c>
       <c r="G75" s="2" t="str">
-        <f>E75&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>661-01-01</v>
       </c>
       <c r="H75" s="2" t="str">
-        <f>F75-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>744-12-31</v>
       </c>
       <c r="O75" s="2" t="str">
-        <f>F75&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>745-01-01</v>
       </c>
     </row>
@@ -10889,11 +10904,11 @@
         <v>1000</v>
       </c>
       <c r="G76" s="2" t="str">
-        <f>E76&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>661-01-01</v>
       </c>
       <c r="H76" s="2" t="str">
-        <f>F76-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>999-12-31</v>
       </c>
       <c r="I76" t="s">
@@ -10903,7 +10918,7 @@
         <v>94</v>
       </c>
       <c r="O76" s="2" t="str">
-        <f>F76&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -10921,15 +10936,15 @@
         <v>684</v>
       </c>
       <c r="G77" s="2" t="str">
-        <f>E77&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>661-01-01</v>
       </c>
       <c r="H77" s="2" t="str">
-        <f>F77-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>683-12-31</v>
       </c>
       <c r="O77" s="2" t="str">
-        <f>F77&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>684-01-01</v>
       </c>
     </row>
@@ -10947,18 +10962,18 @@
         <v>955</v>
       </c>
       <c r="G78" s="2" t="str">
-        <f>E78&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>661-01-01</v>
       </c>
       <c r="H78" s="2" t="str">
-        <f>F78-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>954-12-31</v>
       </c>
       <c r="I78" t="s">
         <v>31</v>
       </c>
       <c r="O78" s="2" t="str">
-        <f>F78&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>955-01-01</v>
       </c>
     </row>
@@ -10976,15 +10991,15 @@
         <v>830</v>
       </c>
       <c r="G79" s="2" t="str">
-        <f>E79&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>661-01-01</v>
       </c>
       <c r="H79" s="2" t="str">
-        <f>F79-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>829-12-31</v>
       </c>
       <c r="O79" s="2" t="str">
-        <f>F79&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>830-01-01</v>
       </c>
     </row>
@@ -11002,11 +11017,11 @@
         <v>828</v>
       </c>
       <c r="G80" s="2" t="str">
-        <f>E80&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>661-01-01</v>
       </c>
       <c r="H80" s="2" t="str">
-        <f>F80-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>827-12-31</v>
       </c>
       <c r="I80" t="s">
@@ -11016,7 +11031,7 @@
         <v>179</v>
       </c>
       <c r="O80" s="2" t="str">
-        <f>F80&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>828-01-01</v>
       </c>
     </row>
@@ -11034,15 +11049,15 @@
         <v>684</v>
       </c>
       <c r="G81" s="2" t="str">
-        <f>E81&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>661-01-01</v>
       </c>
       <c r="H81" s="2" t="str">
-        <f>F81-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>683-12-31</v>
       </c>
       <c r="O81" s="2" t="str">
-        <f>F81&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>684-01-01</v>
       </c>
     </row>
@@ -11060,11 +11075,11 @@
         <v>745</v>
       </c>
       <c r="G82" s="2" t="str">
-        <f>E82&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>661-01-01</v>
       </c>
       <c r="H82" s="2" t="str">
-        <f>F82-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>744-12-31</v>
       </c>
       <c r="I82" t="s">
@@ -11074,7 +11089,7 @@
         <v>113</v>
       </c>
       <c r="O82" s="2" t="str">
-        <f>F82&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>745-01-01</v>
       </c>
     </row>
@@ -11092,18 +11107,18 @@
         <v>750</v>
       </c>
       <c r="G83" s="2" t="str">
-        <f>E83&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>661-01-01</v>
       </c>
       <c r="H83" s="2" t="str">
-        <f>F83-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>749-12-31</v>
       </c>
       <c r="N83" t="s">
         <v>93</v>
       </c>
       <c r="O83" s="2" t="str">
-        <f>F83&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>750-01-01</v>
       </c>
     </row>
@@ -11121,15 +11136,15 @@
         <v>916</v>
       </c>
       <c r="G84" s="2" t="str">
-        <f>E84&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>661-01-01</v>
       </c>
       <c r="H84" s="2" t="str">
-        <f>F84-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>915-12-31</v>
       </c>
       <c r="O84" s="2" t="str">
-        <f>F84&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>916-01-01</v>
       </c>
     </row>
@@ -11147,18 +11162,18 @@
         <v>847</v>
       </c>
       <c r="G85" s="2" t="str">
-        <f>E85&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>661-01-01</v>
       </c>
       <c r="H85" s="2" t="str">
-        <f>F85-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>846-12-31</v>
       </c>
       <c r="I85" t="s">
         <v>196</v>
       </c>
       <c r="O85" s="2" t="str">
-        <f>F85&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>847-01-01</v>
       </c>
     </row>
@@ -11176,18 +11191,18 @@
         <v>861</v>
       </c>
       <c r="G86" s="2" t="str">
-        <f>E86&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>661-01-01</v>
       </c>
       <c r="H86" s="2" t="str">
-        <f>F86-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>860-12-31</v>
       </c>
       <c r="I86" t="s">
         <v>54</v>
       </c>
       <c r="O86" s="2" t="str">
-        <f>F86&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>861-01-01</v>
       </c>
     </row>
@@ -11205,15 +11220,15 @@
         <v>670</v>
       </c>
       <c r="G87" s="2" t="str">
-        <f>E87&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>665-01-01</v>
       </c>
       <c r="H87" s="2" t="str">
-        <f>F87-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>669-12-31</v>
       </c>
       <c r="O87" s="2" t="str">
-        <f>F87&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>670-01-01</v>
       </c>
     </row>
@@ -11231,15 +11246,15 @@
         <v>785</v>
       </c>
       <c r="G88" s="2" t="str">
-        <f>E88&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>670-01-01</v>
       </c>
       <c r="H88" s="2" t="str">
-        <f>F88-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>784-12-31</v>
       </c>
       <c r="O88" s="2" t="str">
-        <f>F88&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>785-01-01</v>
       </c>
     </row>
@@ -11257,15 +11272,15 @@
         <v>934</v>
       </c>
       <c r="G89" s="2" t="str">
-        <f>E89&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>684-01-01</v>
       </c>
       <c r="H89" s="2" t="str">
-        <f>F89-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>933-12-31</v>
       </c>
       <c r="O89" s="2" t="str">
-        <f>F89&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>934-01-01</v>
       </c>
     </row>
@@ -11283,15 +11298,15 @@
         <v>1000</v>
       </c>
       <c r="G90" s="2" t="str">
-        <f>E90&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>692-01-01</v>
       </c>
       <c r="H90" s="2" t="str">
-        <f>F90-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>999-12-31</v>
       </c>
       <c r="O90" s="2" t="str">
-        <f>F90&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -11309,18 +11324,18 @@
         <v>750</v>
       </c>
       <c r="G91" s="2" t="str">
-        <f>E91&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>693-01-01</v>
       </c>
       <c r="H91" s="2" t="str">
-        <f>F91-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>749-12-31</v>
       </c>
       <c r="I91" t="s">
         <v>205</v>
       </c>
       <c r="O91" s="2" t="str">
-        <f>F91&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>750-01-01</v>
       </c>
     </row>
@@ -11338,18 +11353,18 @@
         <v>750</v>
       </c>
       <c r="G92" s="2" t="str">
-        <f>E92&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>693-01-01</v>
       </c>
       <c r="H92" s="2" t="str">
-        <f>F92-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>749-12-31</v>
       </c>
       <c r="I92" t="s">
         <v>205</v>
       </c>
       <c r="O92" s="2" t="str">
-        <f>F92&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>750-01-01</v>
       </c>
     </row>
@@ -11367,15 +11382,15 @@
         <v>717</v>
       </c>
       <c r="G93" s="2" t="str">
-        <f>E93&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>694-01-01</v>
       </c>
       <c r="H93" s="2" t="str">
-        <f>F93-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>716-12-31</v>
       </c>
       <c r="O93" s="2" t="str">
-        <f>F93&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>717-01-01</v>
       </c>
     </row>
@@ -11393,15 +11408,15 @@
         <v>717</v>
       </c>
       <c r="G94" s="2" t="str">
-        <f>E94&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>694-01-01</v>
       </c>
       <c r="H94" s="2" t="str">
-        <f>F94-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>716-12-31</v>
       </c>
       <c r="O94" s="2" t="str">
-        <f>F94&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>717-01-01</v>
       </c>
     </row>
@@ -11419,18 +11434,18 @@
         <v>878</v>
       </c>
       <c r="G95" s="2" t="str">
-        <f>E95&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>695-01-01</v>
       </c>
       <c r="H95" s="2" t="str">
-        <f>F95-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>877-12-31</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>115</v>
       </c>
       <c r="O95" s="2" t="str">
-        <f>F95&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>878-01-01</v>
       </c>
     </row>
@@ -11448,11 +11463,11 @@
         <v>806</v>
       </c>
       <c r="G96" s="2" t="str">
-        <f>E96&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>710-01-01</v>
       </c>
       <c r="H96" s="2" t="str">
-        <f>F96-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>805-12-31</v>
       </c>
       <c r="I96" t="s">
@@ -11462,7 +11477,7 @@
         <v>189</v>
       </c>
       <c r="O96" s="2" t="str">
-        <f>F96&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>806-01-01</v>
       </c>
     </row>
@@ -11480,15 +11495,15 @@
         <v>756</v>
       </c>
       <c r="G97" s="2" t="str">
-        <f>E97&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>716-01-01</v>
       </c>
       <c r="H97" s="2" t="str">
-        <f>F97-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>755-12-31</v>
       </c>
       <c r="O97" s="2" t="str">
-        <f>F97&amp;"-01-01"</f>
+        <f t="shared" si="6"/>
         <v>756-01-01</v>
       </c>
     </row>
@@ -11506,15 +11521,15 @@
         <v>777</v>
       </c>
       <c r="G98" s="2" t="str">
-        <f>E98&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>720-01-01</v>
       </c>
       <c r="H98" s="2" t="str">
-        <f>F98-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>776-12-31</v>
       </c>
       <c r="O98" s="2" t="str">
-        <f>F98&amp;"-01-01"</f>
+        <f t="shared" ref="O98:O124" si="7">F98&amp;"-01-01"</f>
         <v>777-01-01</v>
       </c>
     </row>
@@ -11532,15 +11547,15 @@
         <v>750</v>
       </c>
       <c r="G99" s="2" t="str">
-        <f>E99&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>720-01-01</v>
       </c>
       <c r="H99" s="2" t="str">
-        <f>F99-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>749-12-31</v>
       </c>
       <c r="O99" s="2" t="str">
-        <f>F99&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>750-01-01</v>
       </c>
     </row>
@@ -11558,15 +11573,15 @@
         <v>1000</v>
       </c>
       <c r="G100" s="2" t="str">
-        <f>E100&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>745-01-01</v>
       </c>
       <c r="H100" s="2" t="str">
-        <f>F100-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>999-12-31</v>
       </c>
       <c r="O100" s="2" t="str">
-        <f>F100&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -11584,11 +11599,11 @@
         <v>750</v>
       </c>
       <c r="G101" s="2" t="str">
-        <f>E101&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>745-01-01</v>
       </c>
       <c r="H101" s="2" t="str">
-        <f>F101-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>749-12-31</v>
       </c>
       <c r="I101" t="s">
@@ -11598,7 +11613,7 @@
         <v>111</v>
       </c>
       <c r="O101" s="2" t="str">
-        <f>F101&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>750-01-01</v>
       </c>
     </row>
@@ -11616,15 +11631,15 @@
         <v>1000</v>
       </c>
       <c r="G102" s="2" t="str">
-        <f>E102&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>752-01-01</v>
       </c>
       <c r="H102" s="2" t="str">
-        <f>F102-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>999-12-31</v>
       </c>
       <c r="O102" s="2" t="str">
-        <f>F102&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -11642,18 +11657,18 @@
         <v>920</v>
       </c>
       <c r="G103" s="2" t="str">
-        <f>E103&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>756-01-01</v>
       </c>
       <c r="H103" s="2" t="str">
-        <f>F103-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>919-12-31</v>
       </c>
       <c r="N103" t="s">
         <v>93</v>
       </c>
       <c r="O103" s="2" t="str">
-        <f>F103&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>920-01-01</v>
       </c>
     </row>
@@ -11671,15 +11686,15 @@
         <v>879</v>
       </c>
       <c r="G104" s="2" t="str">
-        <f>E104&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>785-01-01</v>
       </c>
       <c r="H104" s="2" t="str">
-        <f>F104-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>878-12-31</v>
       </c>
       <c r="O104" s="2" t="str">
-        <f>F104&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>879-01-01</v>
       </c>
     </row>
@@ -11697,15 +11712,15 @@
         <v>1000</v>
       </c>
       <c r="G105" s="2" t="str">
-        <f>E105&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>789-01-01</v>
       </c>
       <c r="H105" s="2" t="str">
-        <f>F105-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>999-12-31</v>
       </c>
       <c r="O105" s="2" t="str">
-        <f>F105&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -11723,11 +11738,11 @@
         <v>1000</v>
       </c>
       <c r="G106" s="2" t="str">
-        <f>E106&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>804-01-01</v>
       </c>
       <c r="H106" s="2" t="str">
-        <f>F106-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>999-12-31</v>
       </c>
       <c r="I106" t="s">
@@ -11740,7 +11755,7 @@
         <v>93</v>
       </c>
       <c r="O106" s="2" t="str">
-        <f>F106&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -11758,18 +11773,18 @@
         <v>873</v>
       </c>
       <c r="G107" s="2" t="str">
-        <f>E107&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>809-01-01</v>
       </c>
       <c r="H107" s="2" t="str">
-        <f>F107-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>872-12-31</v>
       </c>
       <c r="I107" t="s">
         <v>187</v>
       </c>
       <c r="O107" s="2" t="str">
-        <f>F107&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>873-01-01</v>
       </c>
     </row>
@@ -11787,15 +11802,15 @@
         <v>863</v>
       </c>
       <c r="G108" s="2" t="str">
-        <f>E108&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>830-01-01</v>
       </c>
       <c r="H108" s="2" t="str">
-        <f>F108-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>862-12-31</v>
       </c>
       <c r="O108" s="2" t="str">
-        <f>F108&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>863-01-01</v>
       </c>
     </row>
@@ -11813,15 +11828,15 @@
         <v>905</v>
       </c>
       <c r="G109" s="2" t="str">
-        <f>E109&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>879-01-01</v>
       </c>
       <c r="H109" s="2" t="str">
-        <f>F109-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>904-12-31</v>
       </c>
       <c r="O109" s="2" t="str">
-        <f>F109&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>905-01-01</v>
       </c>
     </row>
@@ -11839,11 +11854,11 @@
         <v>1000</v>
       </c>
       <c r="G110" s="2" t="str">
-        <f>E110&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>900-01-01</v>
       </c>
       <c r="H110" s="2" t="str">
-        <f>F110-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>999-12-31</v>
       </c>
       <c r="I110" t="s">
@@ -11853,7 +11868,7 @@
         <v>177</v>
       </c>
       <c r="O110" s="2" t="str">
-        <f>F110&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -11871,15 +11886,15 @@
         <v>969</v>
       </c>
       <c r="G111" s="2" t="str">
-        <f>E111&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>905-01-01</v>
       </c>
       <c r="H111" s="2" t="str">
-        <f>F111-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>968-12-31</v>
       </c>
       <c r="O111" s="2" t="str">
-        <f>F111&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>969-01-01</v>
       </c>
     </row>
@@ -11897,18 +11912,18 @@
         <v>923</v>
       </c>
       <c r="G112" s="2" t="str">
-        <f>E112&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>911-01-01</v>
       </c>
       <c r="H112" s="2" t="str">
-        <f>F112-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>922-12-31</v>
       </c>
       <c r="I112" t="s">
         <v>53</v>
       </c>
       <c r="O112" s="2" t="str">
-        <f>F112&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>923-01-01</v>
       </c>
     </row>
@@ -11926,11 +11941,11 @@
         <v>1000</v>
       </c>
       <c r="G113" s="2" t="str">
-        <f>E113&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>930-01-01</v>
       </c>
       <c r="H113" s="2" t="str">
-        <f>F113-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>999-12-31</v>
       </c>
       <c r="I113" t="s">
@@ -11940,7 +11955,7 @@
         <v>142</v>
       </c>
       <c r="O113" s="2" t="str">
-        <f>F113&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>1000-01-01</v>
       </c>
     </row>
@@ -11958,15 +11973,15 @@
         <v>694</v>
       </c>
       <c r="G114" s="2" t="str">
-        <f>E114&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>661-01-01</v>
       </c>
       <c r="H114" s="2" t="str">
-        <f>F114-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>693-12-31</v>
       </c>
       <c r="O114" s="2" t="str">
-        <f>F114&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>694-01-01</v>
       </c>
     </row>
@@ -11984,15 +11999,15 @@
         <v>670</v>
       </c>
       <c r="G115" s="2" t="str">
-        <f>E115&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>661-01-01</v>
       </c>
       <c r="H115" s="2" t="str">
-        <f>F115-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>669-12-31</v>
       </c>
       <c r="O115" s="2" t="str">
-        <f>F115&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>670-01-01</v>
       </c>
     </row>
@@ -12010,15 +12025,15 @@
         <v>685</v>
       </c>
       <c r="G116" s="2" t="str">
-        <f>E116&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>661-01-01</v>
       </c>
       <c r="H116" s="2" t="str">
-        <f>F116-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>684-12-31</v>
       </c>
       <c r="O116" s="2" t="str">
-        <f>F116&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>685-01-01</v>
       </c>
     </row>
@@ -12036,15 +12051,15 @@
         <v>756</v>
       </c>
       <c r="G117" s="2" t="str">
-        <f>E117&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>670-01-01</v>
       </c>
       <c r="H117" s="2" t="str">
-        <f>F117-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>755-12-31</v>
       </c>
       <c r="O117" s="2" t="str">
-        <f>F117&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>756-01-01</v>
       </c>
     </row>
@@ -12062,15 +12077,15 @@
         <v>694</v>
       </c>
       <c r="G118" s="2" t="str">
-        <f>E118&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>687-01-01</v>
       </c>
       <c r="H118" s="2" t="str">
-        <f>F118-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>693-12-31</v>
       </c>
       <c r="O118" s="2" t="str">
-        <f>F118&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>694-01-01</v>
       </c>
     </row>
@@ -12088,18 +12103,18 @@
         <v>750</v>
       </c>
       <c r="G119" s="2" t="str">
-        <f>E119&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>693-01-01</v>
       </c>
       <c r="H119" s="2" t="str">
-        <f>F119-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>749-12-31</v>
       </c>
       <c r="I119" t="s">
         <v>205</v>
       </c>
       <c r="O119" s="2" t="str">
-        <f>F119&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>750-01-01</v>
       </c>
     </row>
@@ -12117,15 +12132,15 @@
         <v>717</v>
       </c>
       <c r="G120" s="2" t="str">
-        <f>E120&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>694-01-01</v>
       </c>
       <c r="H120" s="2" t="str">
-        <f>F120-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>716-12-31</v>
       </c>
       <c r="O120" s="2" t="str">
-        <f>F120&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>717-01-01</v>
       </c>
     </row>
@@ -12143,15 +12158,15 @@
         <v>720</v>
       </c>
       <c r="G121" s="2" t="str">
-        <f>E121&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>717-01-01</v>
       </c>
       <c r="H121" s="2" t="str">
-        <f>F121-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>719-12-31</v>
       </c>
       <c r="O121" s="2" t="str">
-        <f>F121&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>720-01-01</v>
       </c>
     </row>
@@ -12169,15 +12184,15 @@
         <v>720</v>
       </c>
       <c r="G122" s="2" t="str">
-        <f>E122&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>717-01-01</v>
       </c>
       <c r="H122" s="2" t="str">
-        <f>F122-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>719-12-31</v>
       </c>
       <c r="O122" s="2" t="str">
-        <f>F122&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>720-01-01</v>
       </c>
     </row>
@@ -12195,15 +12210,15 @@
         <v>750</v>
       </c>
       <c r="G123" s="2" t="str">
-        <f>E123&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>720-01-01</v>
       </c>
       <c r="H123" s="2" t="str">
-        <f>F123-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>749-12-31</v>
       </c>
       <c r="O123" s="2" t="str">
-        <f>F123&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>750-01-01</v>
       </c>
     </row>
@@ -12221,15 +12236,15 @@
         <v>789</v>
       </c>
       <c r="G124" s="2" t="str">
-        <f>E124&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>777-01-01</v>
       </c>
       <c r="H124" s="2" t="str">
-        <f>F124-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>788-12-31</v>
       </c>
       <c r="O124" s="2" t="str">
-        <f>F124&amp;"-01-01"</f>
+        <f t="shared" si="7"/>
         <v>789-01-01</v>
       </c>
     </row>
@@ -12247,11 +12262,11 @@
         <v>873</v>
       </c>
       <c r="G125" s="2" t="str">
-        <f>E125&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>828-01-01</v>
       </c>
       <c r="H125" s="2" t="str">
-        <f>F125-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>872-12-31</v>
       </c>
       <c r="I125" t="s">
@@ -12267,1751 +12282,1751 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G126" s="2" t="str">
-        <f>E126&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>-01-01</v>
       </c>
       <c r="H126" s="2" t="str">
-        <f>F126-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>-1-12-31</v>
       </c>
       <c r="O126" s="2" t="str">
-        <f>F126&amp;"-01-01"</f>
+        <f t="shared" ref="O126:O157" si="8">F126&amp;"-01-01"</f>
         <v>-01-01</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G127" s="2" t="str">
-        <f>E127&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>-01-01</v>
       </c>
       <c r="H127" s="2" t="str">
-        <f>F127-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>-1-12-31</v>
       </c>
       <c r="O127" s="2" t="str">
-        <f>F127&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G128" s="2" t="str">
-        <f>E128&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>-01-01</v>
       </c>
       <c r="H128" s="2" t="str">
-        <f>F128-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>-1-12-31</v>
       </c>
       <c r="O128" s="2" t="str">
-        <f>F128&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="129" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G129" s="2" t="str">
-        <f>E129&amp;"-01-01"</f>
+        <f t="shared" si="4"/>
         <v>-01-01</v>
       </c>
       <c r="H129" s="2" t="str">
-        <f>F129-1&amp;"-12-31"</f>
+        <f t="shared" si="5"/>
         <v>-1-12-31</v>
       </c>
       <c r="O129" s="2" t="str">
-        <f>F129&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="130" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G130" s="2" t="str">
-        <f>E130&amp;"-01-01"</f>
+        <f t="shared" ref="G130:G193" si="9">E130&amp;"-01-01"</f>
         <v>-01-01</v>
       </c>
       <c r="H130" s="2" t="str">
-        <f>F130-1&amp;"-12-31"</f>
+        <f t="shared" ref="H130:H193" si="10">F130-1&amp;"-12-31"</f>
         <v>-1-12-31</v>
       </c>
       <c r="O130" s="2" t="str">
-        <f>F130&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="131" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G131" s="2" t="str">
-        <f>E131&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H131" s="2" t="str">
-        <f>F131-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O131" s="2" t="str">
-        <f>F131&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="132" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G132" s="2" t="str">
-        <f>E132&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H132" s="2" t="str">
-        <f>F132-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O132" s="2" t="str">
-        <f>F132&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="133" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G133" s="2" t="str">
-        <f>E133&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H133" s="2" t="str">
-        <f>F133-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O133" s="2" t="str">
-        <f>F133&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="134" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G134" s="2" t="str">
-        <f>E134&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H134" s="2" t="str">
-        <f>F134-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O134" s="2" t="str">
-        <f>F134&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="135" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G135" s="2" t="str">
-        <f>E135&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H135" s="2" t="str">
-        <f>F135-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O135" s="2" t="str">
-        <f>F135&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="136" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G136" s="2" t="str">
-        <f>E136&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H136" s="2" t="str">
-        <f>F136-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O136" s="2" t="str">
-        <f>F136&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="137" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G137" s="2" t="str">
-        <f>E137&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H137" s="2" t="str">
-        <f>F137-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O137" s="2" t="str">
-        <f>F137&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="138" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G138" s="2" t="str">
-        <f>E138&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H138" s="2" t="str">
-        <f>F138-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O138" s="2" t="str">
-        <f>F138&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="139" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G139" s="2" t="str">
-        <f>E139&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H139" s="2" t="str">
-        <f>F139-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O139" s="2" t="str">
-        <f>F139&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="140" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G140" s="2" t="str">
-        <f>E140&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H140" s="2" t="str">
-        <f>F140-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O140" s="2" t="str">
-        <f>F140&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="141" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G141" s="2" t="str">
-        <f>E141&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H141" s="2" t="str">
-        <f>F141-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O141" s="2" t="str">
-        <f>F141&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="142" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G142" s="2" t="str">
-        <f>E142&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H142" s="2" t="str">
-        <f>F142-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O142" s="2" t="str">
-        <f>F142&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="143" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G143" s="2" t="str">
-        <f>E143&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H143" s="2" t="str">
-        <f>F143-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O143" s="2" t="str">
-        <f>F143&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="144" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G144" s="2" t="str">
-        <f>E144&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H144" s="2" t="str">
-        <f>F144-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O144" s="2" t="str">
-        <f>F144&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="145" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G145" s="2" t="str">
-        <f>E145&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H145" s="2" t="str">
-        <f>F145-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O145" s="2" t="str">
-        <f>F145&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="146" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G146" s="2" t="str">
-        <f>E146&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H146" s="2" t="str">
-        <f>F146-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O146" s="2" t="str">
-        <f>F146&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="147" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G147" s="2" t="str">
-        <f>E147&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H147" s="2" t="str">
-        <f>F147-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O147" s="2" t="str">
-        <f>F147&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="148" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G148" s="2" t="str">
-        <f>E148&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H148" s="2" t="str">
-        <f>F148-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O148" s="2" t="str">
-        <f>F148&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="149" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G149" s="2" t="str">
-        <f>E149&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H149" s="2" t="str">
-        <f>F149-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O149" s="2" t="str">
-        <f>F149&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="150" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G150" s="2" t="str">
-        <f>E150&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H150" s="2" t="str">
-        <f>F150-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O150" s="2" t="str">
-        <f>F150&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="151" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G151" s="2" t="str">
-        <f>E151&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H151" s="2" t="str">
-        <f>F151-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O151" s="2" t="str">
-        <f>F151&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="152" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G152" s="2" t="str">
-        <f>E152&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H152" s="2" t="str">
-        <f>F152-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O152" s="2" t="str">
-        <f>F152&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="153" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G153" s="2" t="str">
-        <f>E153&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H153" s="2" t="str">
-        <f>F153-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O153" s="2" t="str">
-        <f>F153&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="154" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G154" s="2" t="str">
-        <f>E154&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H154" s="2" t="str">
-        <f>F154-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O154" s="2" t="str">
-        <f>F154&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="155" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G155" s="2" t="str">
-        <f>E155&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H155" s="2" t="str">
-        <f>F155-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O155" s="2" t="str">
-        <f>F155&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="156" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G156" s="2" t="str">
-        <f>E156&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H156" s="2" t="str">
-        <f>F156-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O156" s="2" t="str">
-        <f>F156&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="157" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G157" s="2" t="str">
-        <f>E157&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H157" s="2" t="str">
-        <f>F157-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O157" s="2" t="str">
-        <f>F157&amp;"-01-01"</f>
+        <f t="shared" si="8"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="158" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G158" s="2" t="str">
-        <f>E158&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H158" s="2" t="str">
-        <f>F158-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O158" s="2" t="str">
-        <f>F158&amp;"-01-01"</f>
+        <f t="shared" ref="O158:O189" si="11">F158&amp;"-01-01"</f>
         <v>-01-01</v>
       </c>
     </row>
     <row r="159" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G159" s="2" t="str">
-        <f>E159&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H159" s="2" t="str">
-        <f>F159-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O159" s="2" t="str">
-        <f>F159&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="160" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G160" s="2" t="str">
-        <f>E160&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H160" s="2" t="str">
-        <f>F160-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O160" s="2" t="str">
-        <f>F160&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="161" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G161" s="2" t="str">
-        <f>E161&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H161" s="2" t="str">
-        <f>F161-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O161" s="2" t="str">
-        <f>F161&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="162" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G162" s="2" t="str">
-        <f>E162&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H162" s="2" t="str">
-        <f>F162-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O162" s="2" t="str">
-        <f>F162&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="163" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G163" s="2" t="str">
-        <f>E163&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H163" s="2" t="str">
-        <f>F163-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O163" s="2" t="str">
-        <f>F163&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="164" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G164" s="2" t="str">
-        <f>E164&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H164" s="2" t="str">
-        <f>F164-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O164" s="2" t="str">
-        <f>F164&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="165" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G165" s="2" t="str">
-        <f>E165&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H165" s="2" t="str">
-        <f>F165-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O165" s="2" t="str">
-        <f>F165&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="166" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G166" s="2" t="str">
-        <f>E166&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H166" s="2" t="str">
-        <f>F166-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O166" s="2" t="str">
-        <f>F166&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="167" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G167" s="2" t="str">
-        <f>E167&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H167" s="2" t="str">
-        <f>F167-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O167" s="2" t="str">
-        <f>F167&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="168" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G168" s="2" t="str">
-        <f>E168&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H168" s="2" t="str">
-        <f>F168-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O168" s="2" t="str">
-        <f>F168&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="169" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G169" s="2" t="str">
-        <f>E169&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H169" s="2" t="str">
-        <f>F169-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O169" s="2" t="str">
-        <f>F169&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="170" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G170" s="2" t="str">
-        <f>E170&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H170" s="2" t="str">
-        <f>F170-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O170" s="2" t="str">
-        <f>F170&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="171" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G171" s="2" t="str">
-        <f>E171&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H171" s="2" t="str">
-        <f>F171-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O171" s="2" t="str">
-        <f>F171&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="172" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G172" s="2" t="str">
-        <f>E172&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H172" s="2" t="str">
-        <f>F172-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O172" s="2" t="str">
-        <f>F172&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="173" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G173" s="2" t="str">
-        <f>E173&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H173" s="2" t="str">
-        <f>F173-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O173" s="2" t="str">
-        <f>F173&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="174" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G174" s="2" t="str">
-        <f>E174&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H174" s="2" t="str">
-        <f>F174-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O174" s="2" t="str">
-        <f>F174&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="175" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G175" s="2" t="str">
-        <f>E175&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H175" s="2" t="str">
-        <f>F175-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O175" s="2" t="str">
-        <f>F175&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="176" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G176" s="2" t="str">
-        <f>E176&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H176" s="2" t="str">
-        <f>F176-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O176" s="2" t="str">
-        <f>F176&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="177" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G177" s="2" t="str">
-        <f>E177&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H177" s="2" t="str">
-        <f>F177-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O177" s="2" t="str">
-        <f>F177&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="178" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G178" s="2" t="str">
-        <f>E178&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H178" s="2" t="str">
-        <f>F178-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O178" s="2" t="str">
-        <f>F178&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="179" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G179" s="2" t="str">
-        <f>E179&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H179" s="2" t="str">
-        <f>F179-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O179" s="2" t="str">
-        <f>F179&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="180" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G180" s="2" t="str">
-        <f>E180&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H180" s="2" t="str">
-        <f>F180-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O180" s="2" t="str">
-        <f>F180&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="181" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G181" s="2" t="str">
-        <f>E181&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H181" s="2" t="str">
-        <f>F181-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O181" s="2" t="str">
-        <f>F181&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="182" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G182" s="2" t="str">
-        <f>E182&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H182" s="2" t="str">
-        <f>F182-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O182" s="2" t="str">
-        <f>F182&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="183" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G183" s="2" t="str">
-        <f>E183&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H183" s="2" t="str">
-        <f>F183-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O183" s="2" t="str">
-        <f>F183&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="184" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G184" s="2" t="str">
-        <f>E184&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H184" s="2" t="str">
-        <f>F184-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O184" s="2" t="str">
-        <f>F184&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="185" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G185" s="2" t="str">
-        <f>E185&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H185" s="2" t="str">
-        <f>F185-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O185" s="2" t="str">
-        <f>F185&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="186" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G186" s="2" t="str">
-        <f>E186&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H186" s="2" t="str">
-        <f>F186-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O186" s="2" t="str">
-        <f>F186&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="187" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G187" s="2" t="str">
-        <f>E187&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H187" s="2" t="str">
-        <f>F187-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O187" s="2" t="str">
-        <f>F187&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="188" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G188" s="2" t="str">
-        <f>E188&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H188" s="2" t="str">
-        <f>F188-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O188" s="2" t="str">
-        <f>F188&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="189" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G189" s="2" t="str">
-        <f>E189&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H189" s="2" t="str">
-        <f>F189-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O189" s="2" t="str">
-        <f>F189&amp;"-01-01"</f>
+        <f t="shared" si="11"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="190" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G190" s="2" t="str">
-        <f>E190&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H190" s="2" t="str">
-        <f>F190-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O190" s="2" t="str">
-        <f>F190&amp;"-01-01"</f>
+        <f t="shared" ref="O190:O221" si="12">F190&amp;"-01-01"</f>
         <v>-01-01</v>
       </c>
     </row>
     <row r="191" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G191" s="2" t="str">
-        <f>E191&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H191" s="2" t="str">
-        <f>F191-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O191" s="2" t="str">
-        <f>F191&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="192" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G192" s="2" t="str">
-        <f>E192&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H192" s="2" t="str">
-        <f>F192-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O192" s="2" t="str">
-        <f>F192&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="193" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G193" s="2" t="str">
-        <f>E193&amp;"-01-01"</f>
+        <f t="shared" si="9"/>
         <v>-01-01</v>
       </c>
       <c r="H193" s="2" t="str">
-        <f>F193-1&amp;"-12-31"</f>
+        <f t="shared" si="10"/>
         <v>-1-12-31</v>
       </c>
       <c r="O193" s="2" t="str">
-        <f>F193&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="194" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G194" s="2" t="str">
-        <f>E194&amp;"-01-01"</f>
+        <f t="shared" ref="G194:G250" si="13">E194&amp;"-01-01"</f>
         <v>-01-01</v>
       </c>
       <c r="H194" s="2" t="str">
-        <f>F194-1&amp;"-12-31"</f>
+        <f t="shared" ref="H194:H250" si="14">F194-1&amp;"-12-31"</f>
         <v>-1-12-31</v>
       </c>
       <c r="O194" s="2" t="str">
-        <f>F194&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="195" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G195" s="2" t="str">
-        <f>E195&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H195" s="2" t="str">
-        <f>F195-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O195" s="2" t="str">
-        <f>F195&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="196" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G196" s="2" t="str">
-        <f>E196&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H196" s="2" t="str">
-        <f>F196-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O196" s="2" t="str">
-        <f>F196&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="197" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G197" s="2" t="str">
-        <f>E197&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H197" s="2" t="str">
-        <f>F197-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O197" s="2" t="str">
-        <f>F197&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="198" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G198" s="2" t="str">
-        <f>E198&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H198" s="2" t="str">
-        <f>F198-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O198" s="2" t="str">
-        <f>F198&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="199" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G199" s="2" t="str">
-        <f>E199&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H199" s="2" t="str">
-        <f>F199-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O199" s="2" t="str">
-        <f>F199&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="200" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G200" s="2" t="str">
-        <f>E200&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H200" s="2" t="str">
-        <f>F200-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O200" s="2" t="str">
-        <f>F200&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="201" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G201" s="2" t="str">
-        <f>E201&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H201" s="2" t="str">
-        <f>F201-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O201" s="2" t="str">
-        <f>F201&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="202" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G202" s="2" t="str">
-        <f>E202&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H202" s="2" t="str">
-        <f>F202-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O202" s="2" t="str">
-        <f>F202&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="203" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G203" s="2" t="str">
-        <f>E203&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H203" s="2" t="str">
-        <f>F203-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O203" s="2" t="str">
-        <f>F203&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="204" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G204" s="2" t="str">
-        <f>E204&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H204" s="2" t="str">
-        <f>F204-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O204" s="2" t="str">
-        <f>F204&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="205" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G205" s="2" t="str">
-        <f>E205&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H205" s="2" t="str">
-        <f>F205-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O205" s="2" t="str">
-        <f>F205&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="206" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G206" s="2" t="str">
-        <f>E206&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H206" s="2" t="str">
-        <f>F206-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O206" s="2" t="str">
-        <f>F206&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="207" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G207" s="2" t="str">
-        <f>E207&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H207" s="2" t="str">
-        <f>F207-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O207" s="2" t="str">
-        <f>F207&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="208" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G208" s="2" t="str">
-        <f>E208&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H208" s="2" t="str">
-        <f>F208-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O208" s="2" t="str">
-        <f>F208&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="209" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G209" s="2" t="str">
-        <f>E209&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H209" s="2" t="str">
-        <f>F209-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O209" s="2" t="str">
-        <f>F209&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="210" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G210" s="2" t="str">
-        <f>E210&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H210" s="2" t="str">
-        <f>F210-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O210" s="2" t="str">
-        <f>F210&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="211" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G211" s="2" t="str">
-        <f>E211&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H211" s="2" t="str">
-        <f>F211-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O211" s="2" t="str">
-        <f>F211&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="212" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G212" s="2" t="str">
-        <f>E212&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H212" s="2" t="str">
-        <f>F212-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O212" s="2" t="str">
-        <f>F212&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="213" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G213" s="2" t="str">
-        <f>E213&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H213" s="2" t="str">
-        <f>F213-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O213" s="2" t="str">
-        <f>F213&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="214" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G214" s="2" t="str">
-        <f>E214&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H214" s="2" t="str">
-        <f>F214-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O214" s="2" t="str">
-        <f>F214&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="215" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G215" s="2" t="str">
-        <f>E215&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H215" s="2" t="str">
-        <f>F215-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O215" s="2" t="str">
-        <f>F215&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="216" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G216" s="2" t="str">
-        <f>E216&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H216" s="2" t="str">
-        <f>F216-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O216" s="2" t="str">
-        <f>F216&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="217" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G217" s="2" t="str">
-        <f>E217&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H217" s="2" t="str">
-        <f>F217-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O217" s="2" t="str">
-        <f>F217&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="218" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G218" s="2" t="str">
-        <f>E218&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H218" s="2" t="str">
-        <f>F218-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O218" s="2" t="str">
-        <f>F218&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="219" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G219" s="2" t="str">
-        <f>E219&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H219" s="2" t="str">
-        <f>F219-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O219" s="2" t="str">
-        <f>F219&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="220" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G220" s="2" t="str">
-        <f>E220&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H220" s="2" t="str">
-        <f>F220-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O220" s="2" t="str">
-        <f>F220&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="221" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G221" s="2" t="str">
-        <f>E221&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H221" s="2" t="str">
-        <f>F221-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O221" s="2" t="str">
-        <f>F221&amp;"-01-01"</f>
+        <f t="shared" si="12"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="222" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G222" s="2" t="str">
-        <f>E222&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H222" s="2" t="str">
-        <f>F222-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O222" s="2" t="str">
-        <f>F222&amp;"-01-01"</f>
+        <f t="shared" ref="O222:O250" si="15">F222&amp;"-01-01"</f>
         <v>-01-01</v>
       </c>
     </row>
     <row r="223" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G223" s="2" t="str">
-        <f>E223&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H223" s="2" t="str">
-        <f>F223-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O223" s="2" t="str">
-        <f>F223&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="224" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G224" s="2" t="str">
-        <f>E224&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H224" s="2" t="str">
-        <f>F224-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O224" s="2" t="str">
-        <f>F224&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="225" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G225" s="2" t="str">
-        <f>E225&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H225" s="2" t="str">
-        <f>F225-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O225" s="2" t="str">
-        <f>F225&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="226" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G226" s="2" t="str">
-        <f>E226&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H226" s="2" t="str">
-        <f>F226-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O226" s="2" t="str">
-        <f>F226&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="227" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G227" s="2" t="str">
-        <f>E227&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H227" s="2" t="str">
-        <f>F227-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O227" s="2" t="str">
-        <f>F227&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="228" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G228" s="2" t="str">
-        <f>E228&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H228" s="2" t="str">
-        <f>F228-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O228" s="2" t="str">
-        <f>F228&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="229" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G229" s="2" t="str">
-        <f>E229&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H229" s="2" t="str">
-        <f>F229-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O229" s="2" t="str">
-        <f>F229&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="230" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G230" s="2" t="str">
-        <f>E230&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H230" s="2" t="str">
-        <f>F230-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O230" s="2" t="str">
-        <f>F230&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="231" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G231" s="2" t="str">
-        <f>E231&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H231" s="2" t="str">
-        <f>F231-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O231" s="2" t="str">
-        <f>F231&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="232" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G232" s="2" t="str">
-        <f>E232&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H232" s="2" t="str">
-        <f>F232-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O232" s="2" t="str">
-        <f>F232&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="233" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G233" s="2" t="str">
-        <f>E233&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H233" s="2" t="str">
-        <f>F233-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O233" s="2" t="str">
-        <f>F233&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="234" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G234" s="2" t="str">
-        <f>E234&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H234" s="2" t="str">
-        <f>F234-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O234" s="2" t="str">
-        <f>F234&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="235" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G235" s="2" t="str">
-        <f>E235&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H235" s="2" t="str">
-        <f>F235-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O235" s="2" t="str">
-        <f>F235&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="236" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G236" s="2" t="str">
-        <f>E236&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H236" s="2" t="str">
-        <f>F236-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O236" s="2" t="str">
-        <f>F236&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="237" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G237" s="2" t="str">
-        <f>E237&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H237" s="2" t="str">
-        <f>F237-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O237" s="2" t="str">
-        <f>F237&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="238" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G238" s="2" t="str">
-        <f>E238&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H238" s="2" t="str">
-        <f>F238-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O238" s="2" t="str">
-        <f>F238&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="239" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G239" s="2" t="str">
-        <f>E239&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H239" s="2" t="str">
-        <f>F239-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O239" s="2" t="str">
-        <f>F239&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="240" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G240" s="2" t="str">
-        <f>E240&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H240" s="2" t="str">
-        <f>F240-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O240" s="2" t="str">
-        <f>F240&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="241" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G241" s="2" t="str">
-        <f>E241&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H241" s="2" t="str">
-        <f>F241-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O241" s="2" t="str">
-        <f>F241&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="242" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G242" s="2" t="str">
-        <f>E242&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H242" s="2" t="str">
-        <f>F242-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O242" s="2" t="str">
-        <f>F242&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="243" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G243" s="2" t="str">
-        <f>E243&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H243" s="2" t="str">
-        <f>F243-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O243" s="2" t="str">
-        <f>F243&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="244" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G244" s="2" t="str">
-        <f>E244&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H244" s="2" t="str">
-        <f>F244-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O244" s="2" t="str">
-        <f>F244&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="245" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G245" s="2" t="str">
-        <f>E245&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H245" s="2" t="str">
-        <f>F245-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O245" s="2" t="str">
-        <f>F245&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="246" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G246" s="2" t="str">
-        <f>E246&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H246" s="2" t="str">
-        <f>F246-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O246" s="2" t="str">
-        <f>F246&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="247" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G247" s="2" t="str">
-        <f>E247&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H247" s="2" t="str">
-        <f>F247-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O247" s="2" t="str">
-        <f>F247&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="248" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G248" s="2" t="str">
-        <f>E248&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H248" s="2" t="str">
-        <f>F248-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O248" s="2" t="str">
-        <f>F248&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="249" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G249" s="2" t="str">
-        <f>E249&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H249" s="2" t="str">
-        <f>F249-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O249" s="2" t="str">
-        <f>F249&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
     <row r="250" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G250" s="2" t="str">
-        <f>E250&amp;"-01-01"</f>
+        <f t="shared" si="13"/>
         <v>-01-01</v>
       </c>
       <c r="H250" s="2" t="str">
-        <f>F250-1&amp;"-12-31"</f>
+        <f t="shared" si="14"/>
         <v>-1-12-31</v>
       </c>
       <c r="O250" s="2" t="str">
-        <f>F250&amp;"-01-01"</f>
+        <f t="shared" si="15"/>
         <v>-01-01</v>
       </c>
     </row>
